--- a/Excel-XLSX/UN-SOM.xlsx
+++ b/Excel-XLSX/UN-SOM.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="530">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>8Y9vua</t>
+    <t>4hB0XC</t>
   </si>
   <si>
     <t>2017</t>
@@ -936,10 +936,10 @@
     <t>136</t>
   </si>
   <si>
-    <t>5107</t>
-  </si>
-  <si>
-    <t>18879</t>
+    <t>5203</t>
+  </si>
+  <si>
+    <t>20107</t>
   </si>
   <si>
     <t>137</t>
@@ -1056,18 +1056,18 @@
     <t>164</t>
   </si>
   <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>NIG</t>
+  </si>
+  <si>
+    <t>NGA</t>
+  </si>
+  <si>
     <t>165</t>
   </si>
   <si>
-    <t>Nigeria</t>
-  </si>
-  <si>
-    <t>NIG</t>
-  </si>
-  <si>
-    <t>NGA</t>
-  </si>
-  <si>
     <t>166</t>
   </si>
   <si>
@@ -1077,15 +1077,15 @@
     <t>168</t>
   </si>
   <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>PAK</t>
+  </si>
+  <si>
     <t>169</t>
   </si>
   <si>
-    <t>Pakistan</t>
-  </si>
-  <si>
-    <t>PAK</t>
-  </si>
-  <si>
     <t>170</t>
   </si>
   <si>
@@ -1104,15 +1104,15 @@
     <t>173</t>
   </si>
   <si>
+    <t>Rwanda</t>
+  </si>
+  <si>
+    <t>RWA</t>
+  </si>
+  <si>
     <t>174</t>
   </si>
   <si>
-    <t>Rwanda</t>
-  </si>
-  <si>
-    <t>RWA</t>
-  </si>
-  <si>
     <t>175</t>
   </si>
   <si>
@@ -1131,159 +1131,162 @@
     <t>200000</t>
   </si>
   <si>
+    <t>50000</t>
+  </si>
+  <si>
     <t>181</t>
   </si>
   <si>
-    <t>50000</t>
+    <t>1603</t>
   </si>
   <si>
     <t>182</t>
   </si>
   <si>
-    <t>1603</t>
+    <t>18000</t>
   </si>
   <si>
     <t>183</t>
   </si>
   <si>
-    <t>18000</t>
+    <t>400000</t>
   </si>
   <si>
     <t>184</t>
   </si>
   <si>
-    <t>400000</t>
-  </si>
-  <si>
     <t>185</t>
   </si>
   <si>
+    <t>1000000</t>
+  </si>
+  <si>
     <t>186</t>
   </si>
   <si>
-    <t>1000000</t>
+    <t>1277200</t>
   </si>
   <si>
     <t>187</t>
   </si>
   <si>
-    <t>1277200</t>
+    <t>1550000</t>
   </si>
   <si>
     <t>188</t>
   </si>
   <si>
-    <t>1550000</t>
+    <t>1463780</t>
   </si>
   <si>
     <t>189</t>
   </si>
   <si>
-    <t>1463780</t>
+    <t>1356845</t>
   </si>
   <si>
     <t>190</t>
   </si>
   <si>
-    <t>1356845</t>
+    <t>1132963</t>
+  </si>
+  <si>
+    <t>10188</t>
   </si>
   <si>
     <t>191</t>
   </si>
   <si>
-    <t>1132963</t>
-  </si>
-  <si>
-    <t>10188</t>
+    <t>1133000</t>
+  </si>
+  <si>
+    <t>104706</t>
   </si>
   <si>
     <t>192</t>
   </si>
   <si>
-    <t>1133000</t>
-  </si>
-  <si>
-    <t>104706</t>
+    <t>12736</t>
   </si>
   <si>
     <t>193</t>
   </si>
   <si>
-    <t>12736</t>
+    <t>5000</t>
   </si>
   <si>
     <t>194</t>
   </si>
   <si>
-    <t>5000</t>
+    <t>1562554</t>
   </si>
   <si>
     <t>195</t>
   </si>
   <si>
-    <t>1562554</t>
+    <t>2116705</t>
   </si>
   <si>
     <t>196</t>
   </si>
   <si>
-    <t>2116705</t>
+    <t>2648001</t>
   </si>
   <si>
     <t>197</t>
   </si>
   <si>
-    <t>2648001</t>
+    <t>2648000</t>
+  </si>
+  <si>
+    <t>22555</t>
   </si>
   <si>
     <t>198</t>
   </si>
   <si>
-    <t>2648000</t>
-  </si>
-  <si>
-    <t>22555</t>
+    <t>2967500</t>
+  </si>
+  <si>
+    <t>288966</t>
   </si>
   <si>
     <t>199</t>
   </si>
   <si>
-    <t>2967500</t>
-  </si>
-  <si>
-    <t>288966</t>
+    <t>544249</t>
   </si>
   <si>
     <t>200</t>
   </si>
   <si>
-    <t>544249</t>
+    <t>607256</t>
   </si>
   <si>
     <t>201</t>
   </si>
   <si>
-    <t>607256</t>
+    <t>3860099</t>
+  </si>
+  <si>
+    <t>209</t>
   </si>
   <si>
     <t>202</t>
   </si>
   <si>
-    <t>3860099</t>
+    <t>Sudan</t>
+  </si>
+  <si>
+    <t>SUD</t>
+  </si>
+  <si>
+    <t>SDN</t>
   </si>
   <si>
     <t>203</t>
   </si>
   <si>
-    <t>Sudan</t>
-  </si>
-  <si>
-    <t>SUD</t>
-  </si>
-  <si>
-    <t>SDN</t>
-  </si>
-  <si>
     <t>204</t>
   </si>
   <si>
@@ -1296,9 +1299,6 @@
     <t>208</t>
   </si>
   <si>
-    <t>209</t>
-  </si>
-  <si>
     <t>210</t>
   </si>
   <si>
@@ -1341,15 +1341,15 @@
     <t>224</t>
   </si>
   <si>
+    <t>Syrian Arab Rep.</t>
+  </si>
+  <si>
+    <t>SYR</t>
+  </si>
+  <si>
     <t>225</t>
   </si>
   <si>
-    <t>Syrian Arab Rep.</t>
-  </si>
-  <si>
-    <t>SYR</t>
-  </si>
-  <si>
     <t>226</t>
   </si>
   <si>
@@ -1365,48 +1365,48 @@
     <t>230</t>
   </si>
   <si>
+    <t>245</t>
+  </si>
+  <si>
     <t>231</t>
   </si>
   <si>
-    <t>245</t>
+    <t>603</t>
   </si>
   <si>
     <t>232</t>
   </si>
   <si>
-    <t>603</t>
+    <t>991</t>
   </si>
   <si>
     <t>233</t>
   </si>
   <si>
-    <t>991</t>
+    <t>1121</t>
   </si>
   <si>
     <t>234</t>
   </si>
   <si>
-    <t>1121</t>
+    <t>1367</t>
   </si>
   <si>
     <t>235</t>
   </si>
   <si>
-    <t>1237</t>
+    <t>United Rep. of Tanzania</t>
+  </si>
+  <si>
+    <t>TAN</t>
+  </si>
+  <si>
+    <t>TZA</t>
   </si>
   <si>
     <t>236</t>
   </si>
   <si>
-    <t>United Rep. of Tanzania</t>
-  </si>
-  <si>
-    <t>TAN</t>
-  </si>
-  <si>
-    <t>TZA</t>
-  </si>
-  <si>
     <t>237</t>
   </si>
   <si>
@@ -1449,15 +1449,15 @@
     <t>252</t>
   </si>
   <si>
+    <t>Uganda</t>
+  </si>
+  <si>
+    <t>UGA</t>
+  </si>
+  <si>
     <t>253</t>
   </si>
   <si>
-    <t>Uganda</t>
-  </si>
-  <si>
-    <t>UGA</t>
-  </si>
-  <si>
     <t>254</t>
   </si>
   <si>
@@ -1470,15 +1470,15 @@
     <t>257</t>
   </si>
   <si>
+    <t>Yemen</t>
+  </si>
+  <si>
+    <t>YEM</t>
+  </si>
+  <si>
     <t>258</t>
   </si>
   <si>
-    <t>Yemen</t>
-  </si>
-  <si>
-    <t>YEM</t>
-  </si>
-  <si>
     <t>259</t>
   </si>
   <si>
@@ -1518,72 +1518,72 @@
     <t>271</t>
   </si>
   <si>
+    <t>5183</t>
+  </si>
+  <si>
     <t>272</t>
   </si>
   <si>
-    <t>5183</t>
+    <t>8297</t>
   </si>
   <si>
     <t>273</t>
   </si>
   <si>
-    <t>8297</t>
+    <t>10705</t>
   </si>
   <si>
     <t>274</t>
   </si>
   <si>
-    <t>10705</t>
+    <t>12450</t>
   </si>
   <si>
     <t>275</t>
   </si>
   <si>
-    <t>12450</t>
+    <t>13235</t>
   </si>
   <si>
     <t>276</t>
   </si>
   <si>
-    <t>13235</t>
+    <t>6371</t>
   </si>
   <si>
     <t>277</t>
   </si>
   <si>
-    <t>6371</t>
+    <t>8341</t>
   </si>
   <si>
     <t>278</t>
   </si>
   <si>
-    <t>8341</t>
+    <t>9877</t>
   </si>
   <si>
     <t>279</t>
   </si>
   <si>
-    <t>9877</t>
+    <t>10995</t>
   </si>
   <si>
     <t>280</t>
   </si>
   <si>
-    <t>10311</t>
+    <t>Unknown </t>
+  </si>
+  <si>
+    <t>UKN</t>
+  </si>
+  <si>
+    <t>UNK</t>
   </si>
   <si>
     <t>281</t>
   </si>
   <si>
-    <t>Unknown </t>
-  </si>
-  <si>
-    <t>UKN</t>
-  </si>
-  <si>
-    <t>UNK</t>
-  </si>
-  <si>
     <t>282</t>
   </si>
   <si>
@@ -1606,9 +1606,6 @@
   </si>
   <si>
     <t>289</t>
-  </si>
-  <si>
-    <t>290</t>
   </si>
 </sst>
 </file>
@@ -1993,7 +1990,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V291"/>
+  <dimension ref="A1:V290"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -2133,8 +2130,8 @@
       <c r="U2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V2" s="1" t="s">
-        <v>34</v>
+      <c r="V2" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="3">
@@ -2201,8 +2198,8 @@
       <c r="U3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V3" s="1" t="s">
-        <v>34</v>
+      <c r="V3" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="4">
@@ -2269,8 +2266,8 @@
       <c r="U4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V4" s="1" t="s">
-        <v>34</v>
+      <c r="V4" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="5">
@@ -2337,8 +2334,8 @@
       <c r="U5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V5" s="1" t="s">
-        <v>34</v>
+      <c r="V5" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="6">
@@ -2541,8 +2538,8 @@
       <c r="U8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V8" s="1" t="s">
-        <v>34</v>
+      <c r="V8" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="9">
@@ -2609,8 +2606,8 @@
       <c r="U9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V9" s="1" t="s">
-        <v>34</v>
+      <c r="V9" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="10">
@@ -2677,8 +2674,8 @@
       <c r="U10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V10" s="1" t="s">
-        <v>34</v>
+      <c r="V10" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="11">
@@ -2745,8 +2742,8 @@
       <c r="U11" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V11" s="1" t="s">
-        <v>34</v>
+      <c r="V11" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="12">
@@ -2813,8 +2810,8 @@
       <c r="U12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V12" s="1" t="s">
-        <v>34</v>
+      <c r="V12" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="13">
@@ -2881,8 +2878,8 @@
       <c r="U13" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V13" s="1" t="s">
-        <v>34</v>
+      <c r="V13" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="14">
@@ -2949,8 +2946,8 @@
       <c r="U14" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V14" s="1" t="s">
-        <v>34</v>
+      <c r="V14" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="15">
@@ -3017,8 +3014,8 @@
       <c r="U15" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V15" s="1" t="s">
-        <v>34</v>
+      <c r="V15" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="16">
@@ -3085,8 +3082,8 @@
       <c r="U16" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V16" s="1" t="s">
-        <v>34</v>
+      <c r="V16" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="17">
@@ -3153,8 +3150,8 @@
       <c r="U17" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V17" s="1" t="s">
-        <v>34</v>
+      <c r="V17" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="18">
@@ -3221,8 +3218,8 @@
       <c r="U18" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V18" s="1" t="s">
-        <v>34</v>
+      <c r="V18" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="19">
@@ -3289,8 +3286,8 @@
       <c r="U19" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V19" s="1" t="s">
-        <v>34</v>
+      <c r="V19" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="20">
@@ -3357,8 +3354,8 @@
       <c r="U20" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V20" s="1" t="s">
-        <v>34</v>
+      <c r="V20" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="21">
@@ -3425,8 +3422,8 @@
       <c r="U21" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V21" s="1" t="s">
-        <v>34</v>
+      <c r="V21" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="22">
@@ -3493,8 +3490,8 @@
       <c r="U22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V22" s="1" t="s">
-        <v>34</v>
+      <c r="V22" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="23">
@@ -3561,8 +3558,8 @@
       <c r="U23" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V23" s="1" t="s">
-        <v>34</v>
+      <c r="V23" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="24">
@@ -3629,8 +3626,8 @@
       <c r="U24" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V24" s="1" t="s">
-        <v>34</v>
+      <c r="V24" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="25">
@@ -3833,8 +3830,8 @@
       <c r="U27" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V27" s="1" t="s">
-        <v>34</v>
+      <c r="V27" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="28">
@@ -3901,8 +3898,8 @@
       <c r="U28" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V28" s="1" t="s">
-        <v>34</v>
+      <c r="V28" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="29">
@@ -3969,8 +3966,8 @@
       <c r="U29" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V29" s="1" t="s">
-        <v>34</v>
+      <c r="V29" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="30">
@@ -4037,8 +4034,8 @@
       <c r="U30" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V30" s="1" t="s">
-        <v>34</v>
+      <c r="V30" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="31">
@@ -4105,8 +4102,8 @@
       <c r="U31" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V31" s="1" t="s">
-        <v>34</v>
+      <c r="V31" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="32">
@@ -4173,8 +4170,8 @@
       <c r="U32" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V32" s="1" t="s">
-        <v>34</v>
+      <c r="V32" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="33">
@@ -4241,8 +4238,8 @@
       <c r="U33" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V33" s="1" t="s">
-        <v>34</v>
+      <c r="V33" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="34">
@@ -4309,8 +4306,8 @@
       <c r="U34" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V34" s="1" t="s">
-        <v>34</v>
+      <c r="V34" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="35">
@@ -4377,8 +4374,8 @@
       <c r="U35" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V35" s="1" t="s">
-        <v>34</v>
+      <c r="V35" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="36">
@@ -4445,8 +4442,8 @@
       <c r="U36" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V36" s="1" t="s">
-        <v>34</v>
+      <c r="V36" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="37">
@@ -4513,8 +4510,8 @@
       <c r="U37" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V37" s="1" t="s">
-        <v>34</v>
+      <c r="V37" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="38">
@@ -4717,8 +4714,8 @@
       <c r="U40" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V40" s="1" t="s">
-        <v>34</v>
+      <c r="V40" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="41">
@@ -4785,8 +4782,8 @@
       <c r="U41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V41" s="1" t="s">
-        <v>34</v>
+      <c r="V41" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="42">
@@ -4853,8 +4850,8 @@
       <c r="U42" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V42" s="1" t="s">
-        <v>34</v>
+      <c r="V42" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="43">
@@ -4921,8 +4918,8 @@
       <c r="U43" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V43" s="1" t="s">
-        <v>34</v>
+      <c r="V43" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="44">
@@ -4989,8 +4986,8 @@
       <c r="U44" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V44" s="1" t="s">
-        <v>34</v>
+      <c r="V44" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="45">
@@ -5057,8 +5054,8 @@
       <c r="U45" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V45" s="1" t="s">
-        <v>34</v>
+      <c r="V45" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="46">
@@ -5125,8 +5122,8 @@
       <c r="U46" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V46" s="1" t="s">
-        <v>34</v>
+      <c r="V46" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="47">
@@ -5193,8 +5190,8 @@
       <c r="U47" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V47" s="1" t="s">
-        <v>34</v>
+      <c r="V47" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="48">
@@ -5261,8 +5258,8 @@
       <c r="U48" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V48" s="1" t="s">
-        <v>34</v>
+      <c r="V48" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="49">
@@ -5329,8 +5326,8 @@
       <c r="U49" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V49" s="1" t="s">
-        <v>34</v>
+      <c r="V49" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="50">
@@ -5397,8 +5394,8 @@
       <c r="U50" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V50" s="1" t="s">
-        <v>34</v>
+      <c r="V50" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="51">
@@ -5465,8 +5462,8 @@
       <c r="U51" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V51" s="1" t="s">
-        <v>34</v>
+      <c r="V51" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="52">
@@ -5533,8 +5530,8 @@
       <c r="U52" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V52" s="1" t="s">
-        <v>34</v>
+      <c r="V52" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="53">
@@ -5601,8 +5598,8 @@
       <c r="U53" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V53" s="1" t="s">
-        <v>34</v>
+      <c r="V53" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="54">
@@ -5669,8 +5666,8 @@
       <c r="U54" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V54" s="1" t="s">
-        <v>34</v>
+      <c r="V54" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="55">
@@ -5737,8 +5734,8 @@
       <c r="U55" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V55" s="1" t="s">
-        <v>34</v>
+      <c r="V55" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="56">
@@ -5805,8 +5802,8 @@
       <c r="U56" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V56" s="1" t="s">
-        <v>34</v>
+      <c r="V56" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="57">
@@ -5873,8 +5870,8 @@
       <c r="U57" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V57" s="1" t="s">
-        <v>34</v>
+      <c r="V57" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="58">
@@ -5941,8 +5938,8 @@
       <c r="U58" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V58" s="1" t="s">
-        <v>34</v>
+      <c r="V58" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="59">
@@ -6009,8 +6006,8 @@
       <c r="U59" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V59" s="1" t="s">
-        <v>34</v>
+      <c r="V59" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="60">
@@ -6077,8 +6074,8 @@
       <c r="U60" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V60" s="1" t="s">
-        <v>34</v>
+      <c r="V60" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="61">
@@ -6145,8 +6142,8 @@
       <c r="U61" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V61" s="1" t="s">
-        <v>34</v>
+      <c r="V61" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="62">
@@ -6213,8 +6210,8 @@
       <c r="U62" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V62" s="1" t="s">
-        <v>34</v>
+      <c r="V62" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="63">
@@ -6281,8 +6278,8 @@
       <c r="U63" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V63" s="1" t="s">
-        <v>34</v>
+      <c r="V63" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="64">
@@ -6349,8 +6346,8 @@
       <c r="U64" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V64" s="1" t="s">
-        <v>34</v>
+      <c r="V64" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="65">
@@ -6465,7 +6462,7 @@
         <v>32</v>
       </c>
       <c r="O66" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="P66" s="2" t="s">
         <v>32</v>
@@ -6553,8 +6550,8 @@
       <c r="U67" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V67" s="1" t="s">
-        <v>34</v>
+      <c r="V67" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="68">
@@ -6621,8 +6618,8 @@
       <c r="U68" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V68" s="1" t="s">
-        <v>34</v>
+      <c r="V68" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="69">
@@ -6689,8 +6686,8 @@
       <c r="U69" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V69" s="1" t="s">
-        <v>34</v>
+      <c r="V69" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="70">
@@ -6757,8 +6754,8 @@
       <c r="U70" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V70" s="1" t="s">
-        <v>34</v>
+      <c r="V70" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="71">
@@ -6825,8 +6822,8 @@
       <c r="U71" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V71" s="1" t="s">
-        <v>34</v>
+      <c r="V71" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="72">
@@ -6893,8 +6890,8 @@
       <c r="U72" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V72" s="1" t="s">
-        <v>34</v>
+      <c r="V72" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="73">
@@ -6961,8 +6958,8 @@
       <c r="U73" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V73" s="1" t="s">
-        <v>34</v>
+      <c r="V73" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="74">
@@ -7029,8 +7026,8 @@
       <c r="U74" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V74" s="1" t="s">
-        <v>34</v>
+      <c r="V74" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="75">
@@ -7097,8 +7094,8 @@
       <c r="U75" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V75" s="1" t="s">
-        <v>34</v>
+      <c r="V75" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="76">
@@ -7165,8 +7162,8 @@
       <c r="U76" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V76" s="1" t="s">
-        <v>34</v>
+      <c r="V76" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="77">
@@ -7233,8 +7230,8 @@
       <c r="U77" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V77" s="1" t="s">
-        <v>34</v>
+      <c r="V77" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="78">
@@ -7301,8 +7298,8 @@
       <c r="U78" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V78" s="1" t="s">
-        <v>34</v>
+      <c r="V78" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="79">
@@ -7369,8 +7366,8 @@
       <c r="U79" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V79" s="1" t="s">
-        <v>34</v>
+      <c r="V79" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="80">
@@ -7437,8 +7434,8 @@
       <c r="U80" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V80" s="1" t="s">
-        <v>34</v>
+      <c r="V80" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="81">
@@ -7505,8 +7502,8 @@
       <c r="U81" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V81" s="1" t="s">
-        <v>34</v>
+      <c r="V81" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="82">
@@ -7573,8 +7570,8 @@
       <c r="U82" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V82" s="1" t="s">
-        <v>34</v>
+      <c r="V82" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="83">
@@ -7641,8 +7638,8 @@
       <c r="U83" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V83" s="1" t="s">
-        <v>34</v>
+      <c r="V83" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="84">
@@ -7709,8 +7706,8 @@
       <c r="U84" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V84" s="1" t="s">
-        <v>34</v>
+      <c r="V84" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="85">
@@ -7777,8 +7774,8 @@
       <c r="U85" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V85" s="1" t="s">
-        <v>34</v>
+      <c r="V85" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="86">
@@ -7845,8 +7842,8 @@
       <c r="U86" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V86" s="1" t="s">
-        <v>34</v>
+      <c r="V86" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="87">
@@ -7913,8 +7910,8 @@
       <c r="U87" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V87" s="1" t="s">
-        <v>34</v>
+      <c r="V87" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="88">
@@ -7981,8 +7978,8 @@
       <c r="U88" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V88" s="1" t="s">
-        <v>34</v>
+      <c r="V88" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="89">
@@ -8049,8 +8046,8 @@
       <c r="U89" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V89" s="1" t="s">
-        <v>34</v>
+      <c r="V89" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="90">
@@ -8162,10 +8159,10 @@
         <v>31</v>
       </c>
       <c r="N91" s="2" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="O91" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="P91" s="2" t="s">
         <v>32</v>
@@ -8253,8 +8250,8 @@
       <c r="U92" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V92" s="1" t="s">
-        <v>34</v>
+      <c r="V92" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="93">
@@ -8321,8 +8318,8 @@
       <c r="U93" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V93" s="1" t="s">
-        <v>34</v>
+      <c r="V93" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="94">
@@ -8389,8 +8386,8 @@
       <c r="U94" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V94" s="1" t="s">
-        <v>34</v>
+      <c r="V94" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="95">
@@ -8457,8 +8454,8 @@
       <c r="U95" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V95" s="1" t="s">
-        <v>34</v>
+      <c r="V95" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="96">
@@ -8525,8 +8522,8 @@
       <c r="U96" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V96" s="1" t="s">
-        <v>34</v>
+      <c r="V96" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="97">
@@ -8593,8 +8590,8 @@
       <c r="U97" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V97" s="1" t="s">
-        <v>34</v>
+      <c r="V97" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="98">
@@ -8661,8 +8658,8 @@
       <c r="U98" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V98" s="1" t="s">
-        <v>34</v>
+      <c r="V98" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="99">
@@ -8729,8 +8726,8 @@
       <c r="U99" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V99" s="1" t="s">
-        <v>34</v>
+      <c r="V99" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="100">
@@ -8797,8 +8794,8 @@
       <c r="U100" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V100" s="1" t="s">
-        <v>34</v>
+      <c r="V100" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="101">
@@ -8865,8 +8862,8 @@
       <c r="U101" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V101" s="1" t="s">
-        <v>34</v>
+      <c r="V101" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="102">
@@ -8933,8 +8930,8 @@
       <c r="U102" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V102" s="1" t="s">
-        <v>34</v>
+      <c r="V102" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="103">
@@ -9001,8 +8998,8 @@
       <c r="U103" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V103" s="1" t="s">
-        <v>34</v>
+      <c r="V103" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="104">
@@ -9069,8 +9066,8 @@
       <c r="U104" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V104" s="1" t="s">
-        <v>34</v>
+      <c r="V104" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="105">
@@ -9137,8 +9134,8 @@
       <c r="U105" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V105" s="1" t="s">
-        <v>34</v>
+      <c r="V105" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="106">
@@ -9205,8 +9202,8 @@
       <c r="U106" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V106" s="1" t="s">
-        <v>34</v>
+      <c r="V106" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="107">
@@ -9273,8 +9270,8 @@
       <c r="U107" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V107" s="1" t="s">
-        <v>34</v>
+      <c r="V107" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="108">
@@ -9341,8 +9338,8 @@
       <c r="U108" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V108" s="1" t="s">
-        <v>34</v>
+      <c r="V108" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="109">
@@ -9409,8 +9406,8 @@
       <c r="U109" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V109" s="1" t="s">
-        <v>34</v>
+      <c r="V109" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="110">
@@ -9477,8 +9474,8 @@
       <c r="U110" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V110" s="1" t="s">
-        <v>34</v>
+      <c r="V110" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="111">
@@ -9545,8 +9542,8 @@
       <c r="U111" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V111" s="1" t="s">
-        <v>34</v>
+      <c r="V111" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="112">
@@ -9613,8 +9610,8 @@
       <c r="U112" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V112" s="1" t="s">
-        <v>34</v>
+      <c r="V112" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="113">
@@ -9681,8 +9678,8 @@
       <c r="U113" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V113" s="1" t="s">
-        <v>34</v>
+      <c r="V113" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="114">
@@ -9749,8 +9746,8 @@
       <c r="U114" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V114" s="1" t="s">
-        <v>34</v>
+      <c r="V114" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="115">
@@ -9817,8 +9814,8 @@
       <c r="U115" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V115" s="1" t="s">
-        <v>34</v>
+      <c r="V115" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="116">
@@ -9885,8 +9882,8 @@
       <c r="U116" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V116" s="1" t="s">
-        <v>34</v>
+      <c r="V116" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="117">
@@ -9953,8 +9950,8 @@
       <c r="U117" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V117" s="1" t="s">
-        <v>34</v>
+      <c r="V117" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="118">
@@ -10021,8 +10018,8 @@
       <c r="U118" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V118" s="1" t="s">
-        <v>34</v>
+      <c r="V118" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="119">
@@ -10089,8 +10086,8 @@
       <c r="U119" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V119" s="1" t="s">
-        <v>34</v>
+      <c r="V119" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="120">
@@ -10157,8 +10154,8 @@
       <c r="U120" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V120" s="1" t="s">
-        <v>34</v>
+      <c r="V120" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="121">
@@ -10225,8 +10222,8 @@
       <c r="U121" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V121" s="1" t="s">
-        <v>34</v>
+      <c r="V121" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="122">
@@ -10293,8 +10290,8 @@
       <c r="U122" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V122" s="1" t="s">
-        <v>34</v>
+      <c r="V122" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="123">
@@ -10361,8 +10358,8 @@
       <c r="U123" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V123" s="1" t="s">
-        <v>34</v>
+      <c r="V123" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="124">
@@ -10429,8 +10426,8 @@
       <c r="U124" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V124" s="1" t="s">
-        <v>34</v>
+      <c r="V124" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="125">
@@ -10497,8 +10494,8 @@
       <c r="U125" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V125" s="1" t="s">
-        <v>34</v>
+      <c r="V125" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="126">
@@ -10565,8 +10562,8 @@
       <c r="U126" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V126" s="1" t="s">
-        <v>34</v>
+      <c r="V126" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="127">
@@ -10633,8 +10630,8 @@
       <c r="U127" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V127" s="1" t="s">
-        <v>34</v>
+      <c r="V127" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="128">
@@ -10701,8 +10698,8 @@
       <c r="U128" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V128" s="1" t="s">
-        <v>34</v>
+      <c r="V128" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="129">
@@ -10769,8 +10766,8 @@
       <c r="U129" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V129" s="1" t="s">
-        <v>34</v>
+      <c r="V129" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="130">
@@ -10837,8 +10834,8 @@
       <c r="U130" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V130" s="1" t="s">
-        <v>34</v>
+      <c r="V130" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="131">
@@ -10905,8 +10902,8 @@
       <c r="U131" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V131" s="1" t="s">
-        <v>34</v>
+      <c r="V131" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="132">
@@ -10973,8 +10970,8 @@
       <c r="U132" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V132" s="1" t="s">
-        <v>34</v>
+      <c r="V132" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="133">
@@ -11041,8 +11038,8 @@
       <c r="U133" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V133" s="1" t="s">
-        <v>34</v>
+      <c r="V133" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="134">
@@ -11109,8 +11106,8 @@
       <c r="U134" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V134" s="1" t="s">
-        <v>34</v>
+      <c r="V134" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="135">
@@ -11177,8 +11174,8 @@
       <c r="U135" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V135" s="1" t="s">
-        <v>34</v>
+      <c r="V135" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="136">
@@ -11296,7 +11293,7 @@
         <v>307</v>
       </c>
       <c r="P137" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="Q137" s="2" t="s">
         <v>32</v>
@@ -11381,8 +11378,8 @@
       <c r="U138" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V138" s="1" t="s">
-        <v>34</v>
+      <c r="V138" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="139">
@@ -11449,8 +11446,8 @@
       <c r="U139" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V139" s="1" t="s">
-        <v>34</v>
+      <c r="V139" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="140">
@@ -11517,8 +11514,8 @@
       <c r="U140" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V140" s="1" t="s">
-        <v>34</v>
+      <c r="V140" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="141">
@@ -11585,8 +11582,8 @@
       <c r="U141" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V141" s="1" t="s">
-        <v>34</v>
+      <c r="V141" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="142">
@@ -11653,8 +11650,8 @@
       <c r="U142" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V142" s="1" t="s">
-        <v>34</v>
+      <c r="V142" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="143">
@@ -11721,8 +11718,8 @@
       <c r="U143" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V143" s="1" t="s">
-        <v>34</v>
+      <c r="V143" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="144">
@@ -11789,8 +11786,8 @@
       <c r="U144" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V144" s="1" t="s">
-        <v>34</v>
+      <c r="V144" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="145">
@@ -11857,8 +11854,8 @@
       <c r="U145" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V145" s="1" t="s">
-        <v>34</v>
+      <c r="V145" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="146">
@@ -11925,8 +11922,8 @@
       <c r="U146" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V146" s="1" t="s">
-        <v>34</v>
+      <c r="V146" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="147">
@@ -12038,7 +12035,7 @@
         <v>31</v>
       </c>
       <c r="N148" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="O148" s="2" t="s">
         <v>32</v>
@@ -12129,8 +12126,8 @@
       <c r="U149" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V149" s="1" t="s">
-        <v>34</v>
+      <c r="V149" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="150">
@@ -12197,8 +12194,8 @@
       <c r="U150" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V150" s="1" t="s">
-        <v>34</v>
+      <c r="V150" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="151">
@@ -12265,8 +12262,8 @@
       <c r="U151" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V151" s="1" t="s">
-        <v>34</v>
+      <c r="V151" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="152">
@@ -12333,8 +12330,8 @@
       <c r="U152" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V152" s="1" t="s">
-        <v>34</v>
+      <c r="V152" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="153">
@@ -12721,7 +12718,7 @@
         <v>32</v>
       </c>
       <c r="O158" s="2" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="P158" s="2" t="s">
         <v>32</v>
@@ -12809,8 +12806,8 @@
       <c r="U159" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V159" s="1" t="s">
-        <v>34</v>
+      <c r="V159" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="160">
@@ -12877,8 +12874,8 @@
       <c r="U160" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V160" s="1" t="s">
-        <v>34</v>
+      <c r="V160" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="161">
@@ -12945,8 +12942,8 @@
       <c r="U161" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V161" s="1" t="s">
-        <v>34</v>
+      <c r="V161" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="162">
@@ -13013,8 +13010,8 @@
       <c r="U162" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V162" s="1" t="s">
-        <v>34</v>
+      <c r="V162" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="163">
@@ -13081,8 +13078,8 @@
       <c r="U163" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V163" s="1" t="s">
-        <v>34</v>
+      <c r="V163" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="164">
@@ -13167,19 +13164,19 @@
         <v>345</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>289</v>
+        <v>315</v>
       </c>
       <c r="G165" s="1" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="H165" s="1" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="I165" s="1" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="J165" s="2" t="s">
         <v>29</v>
@@ -13232,22 +13229,22 @@
         <v>22</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>315</v>
       </c>
       <c r="G166" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="H166" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="H166" s="1" t="s">
+      <c r="I166" s="1" t="s">
         <v>348</v>
-      </c>
-      <c r="I166" s="1" t="s">
-        <v>349</v>
       </c>
       <c r="J166" s="2" t="s">
         <v>29</v>
@@ -13285,8 +13282,8 @@
       <c r="U166" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V166" s="1" t="s">
-        <v>34</v>
+      <c r="V166" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="167">
@@ -13303,19 +13300,19 @@
         <v>350</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>315</v>
       </c>
       <c r="G167" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="H167" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="H167" s="1" t="s">
+      <c r="I167" s="1" t="s">
         <v>348</v>
-      </c>
-      <c r="I167" s="1" t="s">
-        <v>349</v>
       </c>
       <c r="J167" s="2" t="s">
         <v>29</v>
@@ -13353,8 +13350,8 @@
       <c r="U167" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V167" s="1" t="s">
-        <v>34</v>
+      <c r="V167" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="168">
@@ -13371,19 +13368,19 @@
         <v>351</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>315</v>
       </c>
       <c r="G168" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="H168" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="H168" s="1" t="s">
+      <c r="I168" s="1" t="s">
         <v>348</v>
-      </c>
-      <c r="I168" s="1" t="s">
-        <v>349</v>
       </c>
       <c r="J168" s="2" t="s">
         <v>29</v>
@@ -13421,8 +13418,8 @@
       <c r="U168" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V168" s="1" t="s">
-        <v>34</v>
+      <c r="V168" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="169">
@@ -13439,19 +13436,19 @@
         <v>352</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="G169" s="1" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="H169" s="1" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="I169" s="1" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="J169" s="2" t="s">
         <v>29</v>
@@ -13489,8 +13486,8 @@
       <c r="U169" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V169" s="1" t="s">
-        <v>34</v>
+      <c r="V169" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="170">
@@ -13504,22 +13501,22 @@
         <v>22</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>321</v>
       </c>
       <c r="G170" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="H170" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="H170" s="1" t="s">
-        <v>355</v>
-      </c>
       <c r="I170" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="J170" s="2" t="s">
         <v>29</v>
@@ -13557,8 +13554,8 @@
       <c r="U170" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V170" s="1" t="s">
-        <v>34</v>
+      <c r="V170" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="171">
@@ -13575,19 +13572,19 @@
         <v>356</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>321</v>
       </c>
       <c r="G171" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="H171" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="H171" s="1" t="s">
-        <v>355</v>
-      </c>
       <c r="I171" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="J171" s="2" t="s">
         <v>29</v>
@@ -13625,8 +13622,8 @@
       <c r="U171" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V171" s="1" t="s">
-        <v>34</v>
+      <c r="V171" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="172">
@@ -13643,19 +13640,19 @@
         <v>357</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>39</v>
+        <v>231</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>321</v>
+        <v>341</v>
       </c>
       <c r="G172" s="1" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="H172" s="1" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="I172" s="1" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="J172" s="2" t="s">
         <v>29</v>
@@ -13673,10 +13670,10 @@
         <v>32</v>
       </c>
       <c r="O172" s="2" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="P172" s="2" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="Q172" s="2" t="s">
         <v>32</v>
@@ -13693,8 +13690,8 @@
       <c r="U172" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V172" s="1" t="s">
-        <v>34</v>
+      <c r="V172" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="173">
@@ -13711,7 +13708,7 @@
         <v>29</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>231</v>
+        <v>147</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>341</v>
@@ -13744,7 +13741,7 @@
         <v>32</v>
       </c>
       <c r="P173" s="2" t="s">
-        <v>53</v>
+        <v>99</v>
       </c>
       <c r="Q173" s="2" t="s">
         <v>32</v>
@@ -13761,8 +13758,8 @@
       <c r="U173" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V173" s="1" t="s">
-        <v>34</v>
+      <c r="V173" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="174">
@@ -13779,19 +13776,19 @@
         <v>361</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>147</v>
+        <v>86</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>341</v>
+        <v>244</v>
       </c>
       <c r="G174" s="1" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="H174" s="1" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="I174" s="1" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="J174" s="2" t="s">
         <v>29</v>
@@ -13812,7 +13809,7 @@
         <v>32</v>
       </c>
       <c r="P174" s="2" t="s">
-        <v>99</v>
+        <v>47</v>
       </c>
       <c r="Q174" s="2" t="s">
         <v>32</v>
@@ -13829,8 +13826,8 @@
       <c r="U174" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V174" s="1" t="s">
-        <v>34</v>
+      <c r="V174" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="175">
@@ -13844,22 +13841,22 @@
         <v>22</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>244</v>
       </c>
       <c r="G175" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="H175" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="H175" s="1" t="s">
-        <v>364</v>
-      </c>
       <c r="I175" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="J175" s="2" t="s">
         <v>29</v>
@@ -13874,13 +13871,13 @@
         <v>31</v>
       </c>
       <c r="N175" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="O175" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P175" s="2" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="Q175" s="2" t="s">
         <v>32</v>
@@ -13897,8 +13894,8 @@
       <c r="U175" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V175" s="1" t="s">
-        <v>34</v>
+      <c r="V175" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="176">
@@ -13915,19 +13912,19 @@
         <v>365</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>244</v>
       </c>
       <c r="G176" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="H176" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="H176" s="1" t="s">
-        <v>364</v>
-      </c>
       <c r="I176" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="J176" s="2" t="s">
         <v>29</v>
@@ -13965,8 +13962,8 @@
       <c r="U176" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V176" s="1" t="s">
-        <v>34</v>
+      <c r="V176" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="177">
@@ -13983,19 +13980,19 @@
         <v>366</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>97</v>
+        <v>54</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>244</v>
       </c>
       <c r="G177" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="H177" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="H177" s="1" t="s">
-        <v>364</v>
-      </c>
       <c r="I177" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="J177" s="2" t="s">
         <v>29</v>
@@ -14033,8 +14030,8 @@
       <c r="U177" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V177" s="1" t="s">
-        <v>34</v>
+      <c r="V177" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="178">
@@ -14051,19 +14048,19 @@
         <v>367</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>244</v>
       </c>
       <c r="G178" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="H178" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="H178" s="1" t="s">
-        <v>364</v>
-      </c>
       <c r="I178" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="J178" s="2" t="s">
         <v>29</v>
@@ -14101,8 +14098,8 @@
       <c r="U178" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V178" s="1" t="s">
-        <v>34</v>
+      <c r="V178" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="179">
@@ -14119,19 +14116,19 @@
         <v>368</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>244</v>
       </c>
       <c r="G179" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="H179" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="H179" s="1" t="s">
-        <v>364</v>
-      </c>
       <c r="I179" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="J179" s="2" t="s">
         <v>29</v>
@@ -14169,8 +14166,8 @@
       <c r="U179" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V179" s="1" t="s">
-        <v>34</v>
+      <c r="V179" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="180">
@@ -14187,19 +14184,19 @@
         <v>369</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>244</v>
+        <v>29</v>
       </c>
       <c r="G180" s="1" t="s">
-        <v>363</v>
+        <v>30</v>
       </c>
       <c r="H180" s="1" t="s">
-        <v>364</v>
+        <v>31</v>
       </c>
       <c r="I180" s="1" t="s">
-        <v>364</v>
+        <v>31</v>
       </c>
       <c r="J180" s="2" t="s">
         <v>29</v>
@@ -14214,7 +14211,7 @@
         <v>31</v>
       </c>
       <c r="N180" s="2" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="O180" s="2" t="s">
         <v>32</v>
@@ -14223,7 +14220,7 @@
         <v>32</v>
       </c>
       <c r="Q180" s="2" t="s">
-        <v>32</v>
+        <v>370</v>
       </c>
       <c r="R180" s="2" t="s">
         <v>32</v>
@@ -14237,8 +14234,8 @@
       <c r="U180" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V180" s="1" t="s">
-        <v>34</v>
+      <c r="V180" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="181">
@@ -14255,7 +14252,7 @@
         <v>249</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>86</v>
+        <v>231</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>29</v>
@@ -14300,13 +14297,13 @@
         <v>32</v>
       </c>
       <c r="T181" s="2" t="s">
-        <v>32</v>
+        <v>371</v>
       </c>
       <c r="U181" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V181" s="1" t="s">
-        <v>34</v>
+      <c r="V181" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="182">
@@ -14320,61 +14317,61 @@
         <v>22</v>
       </c>
       <c r="D182" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F182" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G182" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H182" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I182" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J182" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K182" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L182" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M182" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N182" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O182" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P182" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q182" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="R182" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S182" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T182" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="E182" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="F182" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G182" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H182" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I182" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J182" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K182" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L182" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M182" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N182" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O182" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P182" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q182" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="R182" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S182" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T182" s="2" t="s">
-        <v>372</v>
-      </c>
       <c r="U182" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V182" s="1" t="s">
-        <v>34</v>
+      <c r="V182" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="183">
@@ -14388,10 +14385,10 @@
         <v>22</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>147</v>
+        <v>48</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>29</v>
@@ -14427,7 +14424,7 @@
         <v>32</v>
       </c>
       <c r="Q183" s="2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="R183" s="2" t="s">
         <v>32</v>
@@ -14436,13 +14433,13 @@
         <v>32</v>
       </c>
       <c r="T183" s="2" t="s">
-        <v>372</v>
+        <v>32</v>
       </c>
       <c r="U183" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V183" s="1" t="s">
-        <v>34</v>
+      <c r="V183" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="184">
@@ -14456,10 +14453,10 @@
         <v>22</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>48</v>
+        <v>95</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>29</v>
@@ -14495,7 +14492,7 @@
         <v>32</v>
       </c>
       <c r="Q184" s="2" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="R184" s="2" t="s">
         <v>32</v>
@@ -14509,8 +14506,8 @@
       <c r="U184" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V184" s="1" t="s">
-        <v>34</v>
+      <c r="V184" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="185">
@@ -14524,47 +14521,47 @@
         <v>22</v>
       </c>
       <c r="D185" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="E185" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F185" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G185" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H185" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I185" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J185" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K185" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L185" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M185" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N185" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O185" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P185" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q185" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="E185" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F185" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G185" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H185" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I185" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J185" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K185" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L185" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M185" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N185" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O185" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P185" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q185" s="2" t="s">
-        <v>378</v>
-      </c>
       <c r="R185" s="2" t="s">
         <v>32</v>
       </c>
@@ -14577,8 +14574,8 @@
       <c r="U185" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V185" s="1" t="s">
-        <v>34</v>
+      <c r="V185" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="186">
@@ -14595,7 +14592,7 @@
         <v>379</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>97</v>
+        <v>54</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>29</v>
@@ -14631,7 +14628,7 @@
         <v>32</v>
       </c>
       <c r="Q186" s="2" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="R186" s="2" t="s">
         <v>32</v>
@@ -14645,8 +14642,8 @@
       <c r="U186" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V186" s="1" t="s">
-        <v>34</v>
+      <c r="V186" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="187">
@@ -14660,10 +14657,10 @@
         <v>22</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>29</v>
@@ -14699,7 +14696,7 @@
         <v>32</v>
       </c>
       <c r="Q187" s="2" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="R187" s="2" t="s">
         <v>32</v>
@@ -14713,8 +14710,8 @@
       <c r="U187" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V187" s="1" t="s">
-        <v>34</v>
+      <c r="V187" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="188">
@@ -14728,10 +14725,10 @@
         <v>22</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>29</v>
@@ -14767,7 +14764,7 @@
         <v>32</v>
       </c>
       <c r="Q188" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="R188" s="2" t="s">
         <v>32</v>
@@ -14781,8 +14778,8 @@
       <c r="U188" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V188" s="1" t="s">
-        <v>34</v>
+      <c r="V188" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="189">
@@ -14796,10 +14793,10 @@
         <v>22</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F189" s="2" t="s">
         <v>29</v>
@@ -14835,7 +14832,7 @@
         <v>32</v>
       </c>
       <c r="Q189" s="2" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="R189" s="2" t="s">
         <v>32</v>
@@ -14849,8 +14846,8 @@
       <c r="U189" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V189" s="1" t="s">
-        <v>34</v>
+      <c r="V189" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="190">
@@ -14864,10 +14861,10 @@
         <v>22</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F190" s="2" t="s">
         <v>29</v>
@@ -14903,7 +14900,7 @@
         <v>32</v>
       </c>
       <c r="Q190" s="2" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="R190" s="2" t="s">
         <v>32</v>
@@ -14912,13 +14909,13 @@
         <v>32</v>
       </c>
       <c r="T190" s="2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="U190" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V190" s="1" t="s">
-        <v>34</v>
+      <c r="V190" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="191">
@@ -14932,10 +14929,10 @@
         <v>22</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F191" s="2" t="s">
         <v>29</v>
@@ -14971,22 +14968,22 @@
         <v>32</v>
       </c>
       <c r="Q191" s="2" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="R191" s="2" t="s">
-        <v>32</v>
+        <v>391</v>
       </c>
       <c r="S191" s="2" t="s">
         <v>32</v>
       </c>
       <c r="T191" s="2" t="s">
-        <v>51</v>
+        <v>106</v>
       </c>
       <c r="U191" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V191" s="1" t="s">
-        <v>34</v>
+      <c r="V191" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="192">
@@ -15000,10 +14997,10 @@
         <v>22</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F192" s="2" t="s">
         <v>29</v>
@@ -15039,22 +15036,22 @@
         <v>32</v>
       </c>
       <c r="Q192" s="2" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="R192" s="2" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="S192" s="2" t="s">
         <v>32</v>
       </c>
       <c r="T192" s="2" t="s">
-        <v>106</v>
+        <v>129</v>
       </c>
       <c r="U192" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V192" s="1" t="s">
-        <v>34</v>
+      <c r="V192" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="193">
@@ -15068,49 +15065,49 @@
         <v>22</v>
       </c>
       <c r="D193" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="E193" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F193" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G193" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H193" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I193" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J193" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K193" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L193" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M193" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N193" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O193" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P193" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q193" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="E193" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F193" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G193" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H193" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I193" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J193" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K193" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L193" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M193" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N193" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O193" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P193" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q193" s="2" t="s">
-        <v>394</v>
-      </c>
       <c r="R193" s="2" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="S193" s="2" t="s">
         <v>32</v>
@@ -15121,8 +15118,8 @@
       <c r="U193" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V193" s="1" t="s">
-        <v>34</v>
+      <c r="V193" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="194">
@@ -15136,10 +15133,10 @@
         <v>22</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F194" s="2" t="s">
         <v>29</v>
@@ -15175,22 +15172,22 @@
         <v>32</v>
       </c>
       <c r="Q194" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="R194" s="2" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="S194" s="2" t="s">
         <v>32</v>
       </c>
       <c r="T194" s="2" t="s">
-        <v>129</v>
+        <v>153</v>
       </c>
       <c r="U194" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V194" s="1" t="s">
-        <v>34</v>
+      <c r="V194" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="195">
@@ -15204,10 +15201,10 @@
         <v>22</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F195" s="2" t="s">
         <v>29</v>
@@ -15243,22 +15240,22 @@
         <v>32</v>
       </c>
       <c r="Q195" s="2" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="R195" s="2" t="s">
-        <v>399</v>
+        <v>32</v>
       </c>
       <c r="S195" s="2" t="s">
         <v>32</v>
       </c>
       <c r="T195" s="2" t="s">
-        <v>153</v>
+        <v>257</v>
       </c>
       <c r="U195" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V195" s="1" t="s">
-        <v>34</v>
+      <c r="V195" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="196">
@@ -15272,10 +15269,10 @@
         <v>22</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="F196" s="2" t="s">
         <v>29</v>
@@ -15311,7 +15308,7 @@
         <v>32</v>
       </c>
       <c r="Q196" s="2" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="R196" s="2" t="s">
         <v>32</v>
@@ -15320,13 +15317,13 @@
         <v>32</v>
       </c>
       <c r="T196" s="2" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="U196" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V196" s="1" t="s">
-        <v>34</v>
+      <c r="V196" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="197">
@@ -15340,10 +15337,10 @@
         <v>22</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="F197" s="2" t="s">
         <v>29</v>
@@ -15379,7 +15376,7 @@
         <v>32</v>
       </c>
       <c r="Q197" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="R197" s="2" t="s">
         <v>32</v>
@@ -15388,13 +15385,13 @@
         <v>32</v>
       </c>
       <c r="T197" s="2" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="U197" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V197" s="1" t="s">
-        <v>34</v>
+      <c r="V197" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="198">
@@ -15408,10 +15405,10 @@
         <v>22</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F198" s="2" t="s">
         <v>29</v>
@@ -15447,22 +15444,22 @@
         <v>32</v>
       </c>
       <c r="Q198" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="R198" s="2" t="s">
-        <v>32</v>
+        <v>407</v>
       </c>
       <c r="S198" s="2" t="s">
         <v>32</v>
       </c>
       <c r="T198" s="2" t="s">
-        <v>237</v>
+        <v>299</v>
       </c>
       <c r="U198" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V198" s="1" t="s">
-        <v>34</v>
+      <c r="V198" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="199">
@@ -15476,10 +15473,10 @@
         <v>22</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="F199" s="2" t="s">
         <v>29</v>
@@ -15515,22 +15512,22 @@
         <v>32</v>
       </c>
       <c r="Q199" s="2" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="R199" s="2" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="S199" s="2" t="s">
         <v>32</v>
       </c>
       <c r="T199" s="2" t="s">
-        <v>299</v>
+        <v>25</v>
       </c>
       <c r="U199" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V199" s="1" t="s">
-        <v>34</v>
+      <c r="V199" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="200">
@@ -15544,61 +15541,61 @@
         <v>22</v>
       </c>
       <c r="D200" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="E200" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F200" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G200" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H200" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I200" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J200" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K200" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L200" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M200" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N200" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O200" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P200" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q200" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="E200" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F200" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G200" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H200" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I200" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J200" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K200" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L200" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M200" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N200" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O200" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P200" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q200" s="2" t="s">
-        <v>410</v>
-      </c>
       <c r="R200" s="2" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="S200" s="2" t="s">
         <v>32</v>
       </c>
       <c r="T200" s="2" t="s">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="U200" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V200" s="1" t="s">
-        <v>34</v>
+      <c r="V200" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="201">
@@ -15612,10 +15609,10 @@
         <v>22</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F201" s="2" t="s">
         <v>29</v>
@@ -15651,22 +15648,22 @@
         <v>32</v>
       </c>
       <c r="Q201" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="R201" s="2" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="S201" s="2" t="s">
         <v>32</v>
       </c>
       <c r="T201" s="2" t="s">
-        <v>70</v>
+        <v>365</v>
       </c>
       <c r="U201" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V201" s="1" t="s">
-        <v>34</v>
+      <c r="V201" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="202">
@@ -15680,10 +15677,10 @@
         <v>22</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F202" s="2" t="s">
         <v>29</v>
@@ -15719,16 +15716,16 @@
         <v>32</v>
       </c>
       <c r="Q202" s="2" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="R202" s="2" t="s">
-        <v>415</v>
+        <v>32</v>
       </c>
       <c r="S202" s="2" t="s">
         <v>32</v>
       </c>
       <c r="T202" s="2" t="s">
-        <v>365</v>
+        <v>417</v>
       </c>
       <c r="U202" s="1" t="s">
         <v>34</v>
@@ -15748,22 +15745,22 @@
         <v>22</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>29</v>
+        <v>367</v>
       </c>
       <c r="G203" s="1" t="s">
-        <v>30</v>
+        <v>419</v>
       </c>
       <c r="H203" s="1" t="s">
-        <v>31</v>
+        <v>420</v>
       </c>
       <c r="I203" s="1" t="s">
-        <v>31</v>
+        <v>421</v>
       </c>
       <c r="J203" s="2" t="s">
         <v>29</v>
@@ -15784,10 +15781,10 @@
         <v>32</v>
       </c>
       <c r="P203" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="Q203" s="2" t="s">
-        <v>417</v>
+        <v>32</v>
       </c>
       <c r="R203" s="2" t="s">
         <v>32</v>
@@ -15796,7 +15793,7 @@
         <v>32</v>
       </c>
       <c r="T203" s="2" t="s">
-        <v>366</v>
+        <v>32</v>
       </c>
       <c r="U203" s="1" t="s">
         <v>34</v>
@@ -15816,10 +15813,10 @@
         <v>22</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>86</v>
+        <v>52</v>
       </c>
       <c r="F204" s="2" t="s">
         <v>367</v>
@@ -15846,13 +15843,13 @@
         <v>31</v>
       </c>
       <c r="N204" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="O204" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P204" s="2" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="Q204" s="2" t="s">
         <v>32</v>
@@ -15869,8 +15866,8 @@
       <c r="U204" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V204" s="1" t="s">
-        <v>34</v>
+      <c r="V204" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="205">
@@ -15884,10 +15881,10 @@
         <v>22</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>52</v>
+        <v>114</v>
       </c>
       <c r="F205" s="2" t="s">
         <v>367</v>
@@ -15914,7 +15911,7 @@
         <v>31</v>
       </c>
       <c r="N205" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="O205" s="2" t="s">
         <v>32</v>
@@ -15937,8 +15934,8 @@
       <c r="U205" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V205" s="1" t="s">
-        <v>34</v>
+      <c r="V205" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="206">
@@ -15952,10 +15949,10 @@
         <v>22</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="F206" s="2" t="s">
         <v>367</v>
@@ -15982,7 +15979,7 @@
         <v>31</v>
       </c>
       <c r="N206" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="O206" s="2" t="s">
         <v>32</v>
@@ -16005,8 +16002,8 @@
       <c r="U206" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V206" s="1" t="s">
-        <v>34</v>
+      <c r="V206" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="207">
@@ -16020,10 +16017,10 @@
         <v>22</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="F207" s="2" t="s">
         <v>367</v>
@@ -16073,8 +16070,8 @@
       <c r="U207" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V207" s="1" t="s">
-        <v>34</v>
+      <c r="V207" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="208">
@@ -16091,7 +16088,7 @@
         <v>238</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F208" s="2" t="s">
         <v>367</v>
@@ -16141,8 +16138,8 @@
       <c r="U208" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V208" s="1" t="s">
-        <v>34</v>
+      <c r="V208" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="209">
@@ -16156,10 +16153,10 @@
         <v>22</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>95</v>
+        <v>54</v>
       </c>
       <c r="F209" s="2" t="s">
         <v>367</v>
@@ -16186,7 +16183,7 @@
         <v>31</v>
       </c>
       <c r="N209" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="O209" s="2" t="s">
         <v>32</v>
@@ -16209,8 +16206,8 @@
       <c r="U209" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V209" s="1" t="s">
-        <v>34</v>
+      <c r="V209" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="210">
@@ -16224,10 +16221,10 @@
         <v>22</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F210" s="2" t="s">
         <v>367</v>
@@ -16254,7 +16251,7 @@
         <v>31</v>
       </c>
       <c r="N210" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="O210" s="2" t="s">
         <v>32</v>
@@ -16277,8 +16274,8 @@
       <c r="U210" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V210" s="1" t="s">
-        <v>34</v>
+      <c r="V210" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="211">
@@ -16295,7 +16292,7 @@
         <v>427</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F211" s="2" t="s">
         <v>367</v>
@@ -16322,7 +16319,7 @@
         <v>31</v>
       </c>
       <c r="N211" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="O211" s="2" t="s">
         <v>32</v>
@@ -16345,8 +16342,8 @@
       <c r="U211" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V211" s="1" t="s">
-        <v>34</v>
+      <c r="V211" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="212">
@@ -16363,7 +16360,7 @@
         <v>428</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F212" s="2" t="s">
         <v>367</v>
@@ -16393,7 +16390,7 @@
         <v>43</v>
       </c>
       <c r="O212" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="P212" s="2" t="s">
         <v>32</v>
@@ -16413,8 +16410,8 @@
       <c r="U212" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V212" s="1" t="s">
-        <v>34</v>
+      <c r="V212" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="213">
@@ -16431,7 +16428,7 @@
         <v>429</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F213" s="2" t="s">
         <v>367</v>
@@ -16461,7 +16458,7 @@
         <v>43</v>
       </c>
       <c r="O213" s="2" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="P213" s="2" t="s">
         <v>32</v>
@@ -16481,8 +16478,8 @@
       <c r="U213" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V213" s="1" t="s">
-        <v>34</v>
+      <c r="V213" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="214">
@@ -16499,7 +16496,7 @@
         <v>430</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F214" s="2" t="s">
         <v>367</v>
@@ -16529,7 +16526,7 @@
         <v>43</v>
       </c>
       <c r="O214" s="2" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="P214" s="2" t="s">
         <v>32</v>
@@ -16549,8 +16546,8 @@
       <c r="U214" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V214" s="1" t="s">
-        <v>34</v>
+      <c r="V214" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="215">
@@ -16567,7 +16564,7 @@
         <v>245</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F215" s="2" t="s">
         <v>367</v>
@@ -16617,8 +16614,8 @@
       <c r="U215" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V215" s="1" t="s">
-        <v>34</v>
+      <c r="V215" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="216">
@@ -16635,7 +16632,7 @@
         <v>431</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F216" s="2" t="s">
         <v>367</v>
@@ -16665,7 +16662,7 @@
         <v>43</v>
       </c>
       <c r="O216" s="2" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="P216" s="2" t="s">
         <v>32</v>
@@ -16685,8 +16682,8 @@
       <c r="U216" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V216" s="1" t="s">
-        <v>34</v>
+      <c r="V216" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="217">
@@ -16703,7 +16700,7 @@
         <v>432</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F217" s="2" t="s">
         <v>367</v>
@@ -16733,7 +16730,7 @@
         <v>43</v>
       </c>
       <c r="O217" s="2" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="P217" s="2" t="s">
         <v>32</v>
@@ -16753,8 +16750,8 @@
       <c r="U217" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V217" s="1" t="s">
-        <v>34</v>
+      <c r="V217" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="218">
@@ -16771,7 +16768,7 @@
         <v>433</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="F218" s="2" t="s">
         <v>367</v>
@@ -16821,8 +16818,8 @@
       <c r="U218" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V218" s="1" t="s">
-        <v>34</v>
+      <c r="V218" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="219">
@@ -16839,7 +16836,7 @@
         <v>434</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="F219" s="2" t="s">
         <v>367</v>
@@ -16889,8 +16886,8 @@
       <c r="U219" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V219" s="1" t="s">
-        <v>34</v>
+      <c r="V219" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="220">
@@ -16907,7 +16904,7 @@
         <v>435</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F220" s="2" t="s">
         <v>367</v>
@@ -16937,7 +16934,7 @@
         <v>43</v>
       </c>
       <c r="O220" s="2" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="P220" s="2" t="s">
         <v>32</v>
@@ -16957,8 +16954,8 @@
       <c r="U220" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V220" s="1" t="s">
-        <v>34</v>
+      <c r="V220" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="221">
@@ -16975,7 +16972,7 @@
         <v>436</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="F221" s="2" t="s">
         <v>367</v>
@@ -17002,10 +16999,10 @@
         <v>31</v>
       </c>
       <c r="N221" s="2" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="O221" s="2" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="P221" s="2" t="s">
         <v>32</v>
@@ -17025,8 +17022,8 @@
       <c r="U221" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V221" s="1" t="s">
-        <v>34</v>
+      <c r="V221" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="222">
@@ -17043,7 +17040,7 @@
         <v>437</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="F222" s="2" t="s">
         <v>367</v>
@@ -17073,7 +17070,7 @@
         <v>32</v>
       </c>
       <c r="O222" s="2" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="P222" s="2" t="s">
         <v>32</v>
@@ -17093,8 +17090,8 @@
       <c r="U222" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V222" s="1" t="s">
-        <v>34</v>
+      <c r="V222" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="223">
@@ -17111,7 +17108,7 @@
         <v>438</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F223" s="2" t="s">
         <v>367</v>
@@ -17141,7 +17138,7 @@
         <v>32</v>
       </c>
       <c r="O223" s="2" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="P223" s="2" t="s">
         <v>32</v>
@@ -17161,8 +17158,8 @@
       <c r="U223" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V223" s="1" t="s">
-        <v>34</v>
+      <c r="V223" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="224">
@@ -17179,7 +17176,7 @@
         <v>439</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F224" s="2" t="s">
         <v>367</v>
@@ -17206,10 +17203,10 @@
         <v>31</v>
       </c>
       <c r="N224" s="2" t="s">
-        <v>32</v>
+        <v>269</v>
       </c>
       <c r="O224" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="P224" s="2" t="s">
         <v>32</v>
@@ -17247,19 +17244,19 @@
         <v>440</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="F225" s="2" t="s">
-        <v>367</v>
+        <v>379</v>
       </c>
       <c r="G225" s="1" t="s">
-        <v>419</v>
+        <v>441</v>
       </c>
       <c r="H225" s="1" t="s">
-        <v>420</v>
+        <v>442</v>
       </c>
       <c r="I225" s="1" t="s">
-        <v>421</v>
+        <v>442</v>
       </c>
       <c r="J225" s="2" t="s">
         <v>29</v>
@@ -17277,7 +17274,7 @@
         <v>32</v>
       </c>
       <c r="O225" s="2" t="s">
-        <v>126</v>
+        <v>25</v>
       </c>
       <c r="P225" s="2" t="s">
         <v>32</v>
@@ -17312,22 +17309,22 @@
         <v>22</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F226" s="2" t="s">
         <v>379</v>
       </c>
       <c r="G226" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="H226" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="H226" s="1" t="s">
-        <v>443</v>
-      </c>
       <c r="I226" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J226" s="2" t="s">
         <v>29</v>
@@ -17345,7 +17342,7 @@
         <v>32</v>
       </c>
       <c r="O226" s="2" t="s">
-        <v>25</v>
+        <v>139</v>
       </c>
       <c r="P226" s="2" t="s">
         <v>32</v>
@@ -17365,8 +17362,8 @@
       <c r="U226" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V226" s="1" t="s">
-        <v>34</v>
+      <c r="V226" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="227">
@@ -17383,19 +17380,19 @@
         <v>444</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F227" s="2" t="s">
         <v>379</v>
       </c>
       <c r="G227" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="H227" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="H227" s="1" t="s">
-        <v>443</v>
-      </c>
       <c r="I227" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J227" s="2" t="s">
         <v>29</v>
@@ -17410,10 +17407,10 @@
         <v>31</v>
       </c>
       <c r="N227" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="O227" s="2" t="s">
-        <v>139</v>
+        <v>202</v>
       </c>
       <c r="P227" s="2" t="s">
         <v>32</v>
@@ -17433,8 +17430,8 @@
       <c r="U227" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V227" s="1" t="s">
-        <v>34</v>
+      <c r="V227" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="228">
@@ -17451,19 +17448,19 @@
         <v>445</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F228" s="2" t="s">
         <v>379</v>
       </c>
       <c r="G228" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="H228" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="H228" s="1" t="s">
-        <v>443</v>
-      </c>
       <c r="I228" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J228" s="2" t="s">
         <v>29</v>
@@ -17478,10 +17475,10 @@
         <v>31</v>
       </c>
       <c r="N228" s="2" t="s">
-        <v>37</v>
+        <v>319</v>
       </c>
       <c r="O228" s="2" t="s">
-        <v>202</v>
+        <v>32</v>
       </c>
       <c r="P228" s="2" t="s">
         <v>32</v>
@@ -17501,8 +17498,8 @@
       <c r="U228" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V228" s="1" t="s">
-        <v>34</v>
+      <c r="V228" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="229">
@@ -17519,19 +17516,19 @@
         <v>446</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="F229" s="2" t="s">
         <v>379</v>
       </c>
       <c r="G229" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="H229" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="H229" s="1" t="s">
-        <v>443</v>
-      </c>
       <c r="I229" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J229" s="2" t="s">
         <v>29</v>
@@ -17546,10 +17543,10 @@
         <v>31</v>
       </c>
       <c r="N229" s="2" t="s">
-        <v>319</v>
+        <v>29</v>
       </c>
       <c r="O229" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="P229" s="2" t="s">
         <v>32</v>
@@ -17569,8 +17566,8 @@
       <c r="U229" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V229" s="1" t="s">
-        <v>34</v>
+      <c r="V229" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="230">
@@ -17587,19 +17584,19 @@
         <v>447</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="F230" s="2" t="s">
         <v>379</v>
       </c>
       <c r="G230" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="H230" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="H230" s="1" t="s">
-        <v>443</v>
-      </c>
       <c r="I230" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J230" s="2" t="s">
         <v>29</v>
@@ -17614,10 +17611,10 @@
         <v>31</v>
       </c>
       <c r="N230" s="2" t="s">
-        <v>29</v>
+        <v>425</v>
       </c>
       <c r="O230" s="2" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="P230" s="2" t="s">
         <v>32</v>
@@ -17637,8 +17634,8 @@
       <c r="U230" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V230" s="1" t="s">
-        <v>34</v>
+      <c r="V230" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="231">
@@ -17655,19 +17652,19 @@
         <v>448</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F231" s="2" t="s">
         <v>379</v>
       </c>
       <c r="G231" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="H231" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="H231" s="1" t="s">
-        <v>443</v>
-      </c>
       <c r="I231" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J231" s="2" t="s">
         <v>29</v>
@@ -17682,10 +17679,10 @@
         <v>31</v>
       </c>
       <c r="N231" s="2" t="s">
-        <v>424</v>
+        <v>449</v>
       </c>
       <c r="O231" s="2" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="P231" s="2" t="s">
         <v>32</v>
@@ -17705,8 +17702,8 @@
       <c r="U231" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V231" s="1" t="s">
-        <v>34</v>
+      <c r="V231" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="232">
@@ -17720,22 +17717,22 @@
         <v>22</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="F232" s="2" t="s">
         <v>379</v>
       </c>
       <c r="G232" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="H232" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="H232" s="1" t="s">
-        <v>443</v>
-      </c>
       <c r="I232" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J232" s="2" t="s">
         <v>29</v>
@@ -17750,10 +17747,10 @@
         <v>31</v>
       </c>
       <c r="N232" s="2" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="O232" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="P232" s="2" t="s">
         <v>32</v>
@@ -17773,8 +17770,8 @@
       <c r="U232" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V232" s="1" t="s">
-        <v>34</v>
+      <c r="V232" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="233">
@@ -17788,22 +17785,22 @@
         <v>22</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="F233" s="2" t="s">
         <v>379</v>
       </c>
       <c r="G233" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="H233" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="H233" s="1" t="s">
-        <v>443</v>
-      </c>
       <c r="I233" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J233" s="2" t="s">
         <v>29</v>
@@ -17818,10 +17815,10 @@
         <v>31</v>
       </c>
       <c r="N233" s="2" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="O233" s="2" t="s">
-        <v>67</v>
+        <v>141</v>
       </c>
       <c r="P233" s="2" t="s">
         <v>32</v>
@@ -17841,8 +17838,8 @@
       <c r="U233" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V233" s="1" t="s">
-        <v>34</v>
+      <c r="V233" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="234">
@@ -17856,22 +17853,22 @@
         <v>22</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F234" s="2" t="s">
         <v>379</v>
       </c>
       <c r="G234" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="H234" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="H234" s="1" t="s">
-        <v>443</v>
-      </c>
       <c r="I234" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J234" s="2" t="s">
         <v>29</v>
@@ -17886,10 +17883,10 @@
         <v>31</v>
       </c>
       <c r="N234" s="2" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="O234" s="2" t="s">
-        <v>141</v>
+        <v>233</v>
       </c>
       <c r="P234" s="2" t="s">
         <v>32</v>
@@ -17909,8 +17906,8 @@
       <c r="U234" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V234" s="1" t="s">
-        <v>34</v>
+      <c r="V234" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="235">
@@ -17924,22 +17921,22 @@
         <v>22</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F235" s="2" t="s">
         <v>379</v>
       </c>
       <c r="G235" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="H235" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="H235" s="1" t="s">
-        <v>443</v>
-      </c>
       <c r="I235" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J235" s="2" t="s">
         <v>29</v>
@@ -17954,10 +17951,10 @@
         <v>31</v>
       </c>
       <c r="N235" s="2" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="O235" s="2" t="s">
-        <v>233</v>
+        <v>341</v>
       </c>
       <c r="P235" s="2" t="s">
         <v>32</v>
@@ -17992,22 +17989,22 @@
         <v>22</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="F236" s="2" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="G236" s="1" t="s">
-        <v>442</v>
+        <v>459</v>
       </c>
       <c r="H236" s="1" t="s">
-        <v>443</v>
+        <v>460</v>
       </c>
       <c r="I236" s="1" t="s">
-        <v>443</v>
+        <v>461</v>
       </c>
       <c r="J236" s="2" t="s">
         <v>29</v>
@@ -18022,13 +18019,13 @@
         <v>31</v>
       </c>
       <c r="N236" s="2" t="s">
-        <v>458</v>
+        <v>32</v>
       </c>
       <c r="O236" s="2" t="s">
-        <v>233</v>
+        <v>32</v>
       </c>
       <c r="P236" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="Q236" s="2" t="s">
         <v>32</v>
@@ -18060,23 +18057,23 @@
         <v>22</v>
       </c>
       <c r="D237" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="E237" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F237" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="G237" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="E237" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F237" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="G237" s="1" t="s">
+      <c r="H237" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="H237" s="1" t="s">
+      <c r="I237" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="I237" s="1" t="s">
-        <v>462</v>
-      </c>
       <c r="J237" s="2" t="s">
         <v>29</v>
       </c>
@@ -18093,10 +18090,10 @@
         <v>32</v>
       </c>
       <c r="O237" s="2" t="s">
-        <v>32</v>
+        <v>94</v>
       </c>
       <c r="P237" s="2" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="Q237" s="2" t="s">
         <v>32</v>
@@ -18113,8 +18110,8 @@
       <c r="U237" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V237" s="1" t="s">
-        <v>34</v>
+      <c r="V237" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="238">
@@ -18131,20 +18128,20 @@
         <v>463</v>
       </c>
       <c r="E238" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F238" s="2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="G238" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="H238" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="H238" s="1" t="s">
+      <c r="I238" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="I238" s="1" t="s">
-        <v>462</v>
-      </c>
       <c r="J238" s="2" t="s">
         <v>29</v>
       </c>
@@ -18161,7 +18158,7 @@
         <v>32</v>
       </c>
       <c r="O238" s="2" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="P238" s="2" t="s">
         <v>32</v>
@@ -18181,8 +18178,8 @@
       <c r="U238" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V238" s="1" t="s">
-        <v>34</v>
+      <c r="V238" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="239">
@@ -18199,20 +18196,20 @@
         <v>464</v>
       </c>
       <c r="E239" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F239" s="2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="G239" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="H239" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="H239" s="1" t="s">
+      <c r="I239" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="I239" s="1" t="s">
-        <v>462</v>
-      </c>
       <c r="J239" s="2" t="s">
         <v>29</v>
       </c>
@@ -18229,7 +18226,7 @@
         <v>32</v>
       </c>
       <c r="O239" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="P239" s="2" t="s">
         <v>32</v>
@@ -18249,8 +18246,8 @@
       <c r="U239" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V239" s="1" t="s">
-        <v>34</v>
+      <c r="V239" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="240">
@@ -18267,19 +18264,19 @@
         <v>465</v>
       </c>
       <c r="E240" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F240" s="2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="G240" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="H240" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="H240" s="1" t="s">
+      <c r="I240" s="1" t="s">
         <v>461</v>
-      </c>
-      <c r="I240" s="1" t="s">
-        <v>462</v>
       </c>
       <c r="J240" s="2" t="s">
         <v>29</v>
@@ -18317,8 +18314,8 @@
       <c r="U240" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V240" s="1" t="s">
-        <v>34</v>
+      <c r="V240" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="241">
@@ -18335,20 +18332,20 @@
         <v>466</v>
       </c>
       <c r="E241" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F241" s="2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="G241" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="H241" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="H241" s="1" t="s">
+      <c r="I241" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="I241" s="1" t="s">
-        <v>462</v>
-      </c>
       <c r="J241" s="2" t="s">
         <v>29</v>
       </c>
@@ -18362,13 +18359,13 @@
         <v>31</v>
       </c>
       <c r="N241" s="2" t="s">
-        <v>32</v>
+        <v>92</v>
       </c>
       <c r="O241" s="2" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="P241" s="2" t="s">
-        <v>32</v>
+        <v>117</v>
       </c>
       <c r="Q241" s="2" t="s">
         <v>32</v>
@@ -18385,8 +18382,8 @@
       <c r="U241" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V241" s="1" t="s">
-        <v>34</v>
+      <c r="V241" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="242">
@@ -18403,20 +18400,20 @@
         <v>467</v>
       </c>
       <c r="E242" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F242" s="2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="G242" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="H242" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="H242" s="1" t="s">
+      <c r="I242" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="I242" s="1" t="s">
-        <v>462</v>
-      </c>
       <c r="J242" s="2" t="s">
         <v>29</v>
       </c>
@@ -18430,13 +18427,13 @@
         <v>31</v>
       </c>
       <c r="N242" s="2" t="s">
-        <v>92</v>
+        <v>139</v>
       </c>
       <c r="O242" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="P242" s="2" t="s">
-        <v>117</v>
+        <v>32</v>
       </c>
       <c r="Q242" s="2" t="s">
         <v>32</v>
@@ -18453,8 +18450,8 @@
       <c r="U242" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V242" s="1" t="s">
-        <v>34</v>
+      <c r="V242" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="243">
@@ -18471,20 +18468,20 @@
         <v>468</v>
       </c>
       <c r="E243" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F243" s="2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="G243" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="H243" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="H243" s="1" t="s">
+      <c r="I243" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="I243" s="1" t="s">
-        <v>462</v>
-      </c>
       <c r="J243" s="2" t="s">
         <v>29</v>
       </c>
@@ -18498,7 +18495,7 @@
         <v>31</v>
       </c>
       <c r="N243" s="2" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="O243" s="2" t="s">
         <v>32</v>
@@ -18521,8 +18518,8 @@
       <c r="U243" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V243" s="1" t="s">
-        <v>34</v>
+      <c r="V243" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="244">
@@ -18539,20 +18536,20 @@
         <v>469</v>
       </c>
       <c r="E244" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F244" s="2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="G244" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="H244" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="H244" s="1" t="s">
+      <c r="I244" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="I244" s="1" t="s">
-        <v>462</v>
-      </c>
       <c r="J244" s="2" t="s">
         <v>29</v>
       </c>
@@ -18566,7 +18563,7 @@
         <v>31</v>
       </c>
       <c r="N244" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="O244" s="2" t="s">
         <v>32</v>
@@ -18589,8 +18586,8 @@
       <c r="U244" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V244" s="1" t="s">
-        <v>34</v>
+      <c r="V244" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="245">
@@ -18607,20 +18604,20 @@
         <v>470</v>
       </c>
       <c r="E245" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F245" s="2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="G245" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="H245" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="H245" s="1" t="s">
+      <c r="I245" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="I245" s="1" t="s">
-        <v>462</v>
-      </c>
       <c r="J245" s="2" t="s">
         <v>29</v>
       </c>
@@ -18634,10 +18631,10 @@
         <v>31</v>
       </c>
       <c r="N245" s="2" t="s">
-        <v>150</v>
+        <v>32</v>
       </c>
       <c r="O245" s="2" t="s">
-        <v>32</v>
+        <v>151</v>
       </c>
       <c r="P245" s="2" t="s">
         <v>32</v>
@@ -18657,8 +18654,8 @@
       <c r="U245" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V245" s="1" t="s">
-        <v>34</v>
+      <c r="V245" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="246">
@@ -18672,22 +18669,22 @@
         <v>22</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E246" s="2" t="s">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="F246" s="2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="G246" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="H246" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="H246" s="1" t="s">
+      <c r="I246" s="1" t="s">
         <v>461</v>
-      </c>
-      <c r="I246" s="1" t="s">
-        <v>462</v>
       </c>
       <c r="J246" s="2" t="s">
         <v>29</v>
@@ -18725,8 +18722,8 @@
       <c r="U246" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V246" s="1" t="s">
-        <v>34</v>
+      <c r="V246" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="247">
@@ -18743,20 +18740,20 @@
         <v>471</v>
       </c>
       <c r="E247" s="2" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="F247" s="2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="G247" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="H247" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="H247" s="1" t="s">
+      <c r="I247" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="I247" s="1" t="s">
-        <v>462</v>
-      </c>
       <c r="J247" s="2" t="s">
         <v>29</v>
       </c>
@@ -18773,7 +18770,7 @@
         <v>32</v>
       </c>
       <c r="O247" s="2" t="s">
-        <v>151</v>
+        <v>252</v>
       </c>
       <c r="P247" s="2" t="s">
         <v>32</v>
@@ -18793,8 +18790,8 @@
       <c r="U247" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V247" s="1" t="s">
-        <v>34</v>
+      <c r="V247" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="248">
@@ -18811,20 +18808,20 @@
         <v>472</v>
       </c>
       <c r="E248" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F248" s="2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="G248" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="H248" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="H248" s="1" t="s">
+      <c r="I248" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="I248" s="1" t="s">
-        <v>462</v>
-      </c>
       <c r="J248" s="2" t="s">
         <v>29</v>
       </c>
@@ -18841,7 +18838,7 @@
         <v>32</v>
       </c>
       <c r="O248" s="2" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="P248" s="2" t="s">
         <v>32</v>
@@ -18861,8 +18858,8 @@
       <c r="U248" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V248" s="1" t="s">
-        <v>34</v>
+      <c r="V248" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="249">
@@ -18879,20 +18876,20 @@
         <v>473</v>
       </c>
       <c r="E249" s="2" t="s">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="F249" s="2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="G249" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="H249" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="H249" s="1" t="s">
+      <c r="I249" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="I249" s="1" t="s">
-        <v>462</v>
-      </c>
       <c r="J249" s="2" t="s">
         <v>29</v>
       </c>
@@ -18909,7 +18906,7 @@
         <v>32</v>
       </c>
       <c r="O249" s="2" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="P249" s="2" t="s">
         <v>32</v>
@@ -18929,8 +18926,8 @@
       <c r="U249" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V249" s="1" t="s">
-        <v>34</v>
+      <c r="V249" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="250">
@@ -18947,20 +18944,20 @@
         <v>474</v>
       </c>
       <c r="E250" s="2" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="F250" s="2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="G250" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="H250" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="H250" s="1" t="s">
+      <c r="I250" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="I250" s="1" t="s">
-        <v>462</v>
-      </c>
       <c r="J250" s="2" t="s">
         <v>29</v>
       </c>
@@ -18977,7 +18974,7 @@
         <v>32</v>
       </c>
       <c r="O250" s="2" t="s">
-        <v>252</v>
+        <v>302</v>
       </c>
       <c r="P250" s="2" t="s">
         <v>32</v>
@@ -18997,8 +18994,8 @@
       <c r="U250" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V250" s="1" t="s">
-        <v>34</v>
+      <c r="V250" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="251">
@@ -19015,20 +19012,20 @@
         <v>292</v>
       </c>
       <c r="E251" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F251" s="2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="G251" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="H251" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="H251" s="1" t="s">
+      <c r="I251" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="I251" s="1" t="s">
-        <v>462</v>
-      </c>
       <c r="J251" s="2" t="s">
         <v>29</v>
       </c>
@@ -19045,7 +19042,7 @@
         <v>32</v>
       </c>
       <c r="O251" s="2" t="s">
-        <v>302</v>
+        <v>313</v>
       </c>
       <c r="P251" s="2" t="s">
         <v>32</v>
@@ -19065,8 +19062,8 @@
       <c r="U251" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V251" s="1" t="s">
-        <v>34</v>
+      <c r="V251" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="252">
@@ -19083,20 +19080,20 @@
         <v>475</v>
       </c>
       <c r="E252" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F252" s="2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="G252" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="H252" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="H252" s="1" t="s">
+      <c r="I252" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="I252" s="1" t="s">
-        <v>462</v>
-      </c>
       <c r="J252" s="2" t="s">
         <v>29</v>
       </c>
@@ -19113,7 +19110,7 @@
         <v>32</v>
       </c>
       <c r="O252" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="P252" s="2" t="s">
         <v>32</v>
@@ -19151,19 +19148,19 @@
         <v>476</v>
       </c>
       <c r="E253" s="2" t="s">
-        <v>46</v>
+        <v>93</v>
       </c>
       <c r="F253" s="2" t="s">
-        <v>380</v>
+        <v>411</v>
       </c>
       <c r="G253" s="1" t="s">
-        <v>460</v>
+        <v>477</v>
       </c>
       <c r="H253" s="1" t="s">
-        <v>461</v>
+        <v>478</v>
       </c>
       <c r="I253" s="1" t="s">
-        <v>462</v>
+        <v>478</v>
       </c>
       <c r="J253" s="2" t="s">
         <v>29</v>
@@ -19178,10 +19175,10 @@
         <v>31</v>
       </c>
       <c r="N253" s="2" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="O253" s="2" t="s">
-        <v>313</v>
+        <v>32</v>
       </c>
       <c r="P253" s="2" t="s">
         <v>32</v>
@@ -19216,22 +19213,22 @@
         <v>22</v>
       </c>
       <c r="D254" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="E254" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F254" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="G254" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="E254" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F254" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="G254" s="1" t="s">
+      <c r="H254" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="H254" s="1" t="s">
-        <v>479</v>
-      </c>
       <c r="I254" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="J254" s="2" t="s">
         <v>29</v>
@@ -19246,7 +19243,7 @@
         <v>31</v>
       </c>
       <c r="N254" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="O254" s="2" t="s">
         <v>32</v>
@@ -19269,8 +19266,8 @@
       <c r="U254" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V254" s="1" t="s">
-        <v>34</v>
+      <c r="V254" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="255">
@@ -19287,19 +19284,19 @@
         <v>480</v>
       </c>
       <c r="E255" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F255" s="2" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="G255" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="H255" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="H255" s="1" t="s">
-        <v>479</v>
-      </c>
       <c r="I255" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="J255" s="2" t="s">
         <v>29</v>
@@ -19337,8 +19334,8 @@
       <c r="U255" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V255" s="1" t="s">
-        <v>34</v>
+      <c r="V255" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="256">
@@ -19355,19 +19352,19 @@
         <v>481</v>
       </c>
       <c r="E256" s="2" t="s">
-        <v>97</v>
+        <v>54</v>
       </c>
       <c r="F256" s="2" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="G256" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="H256" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="H256" s="1" t="s">
-        <v>479</v>
-      </c>
       <c r="I256" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="J256" s="2" t="s">
         <v>29</v>
@@ -19405,8 +19402,8 @@
       <c r="U256" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V256" s="1" t="s">
-        <v>34</v>
+      <c r="V256" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="257">
@@ -19423,19 +19420,19 @@
         <v>482</v>
       </c>
       <c r="E257" s="2" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="F257" s="2" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="G257" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="H257" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="H257" s="1" t="s">
-        <v>479</v>
-      </c>
       <c r="I257" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="J257" s="2" t="s">
         <v>29</v>
@@ -19450,7 +19447,7 @@
         <v>31</v>
       </c>
       <c r="N257" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="O257" s="2" t="s">
         <v>32</v>
@@ -19473,8 +19470,8 @@
       <c r="U257" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V257" s="1" t="s">
-        <v>34</v>
+      <c r="V257" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="258">
@@ -19491,19 +19488,19 @@
         <v>483</v>
       </c>
       <c r="E258" s="2" t="s">
-        <v>73</v>
+        <v>224</v>
       </c>
       <c r="F258" s="2" t="s">
-        <v>409</v>
+        <v>428</v>
       </c>
       <c r="G258" s="1" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="H258" s="1" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="I258" s="1" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="J258" s="2" t="s">
         <v>29</v>
@@ -19541,8 +19538,8 @@
       <c r="U258" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V258" s="1" t="s">
-        <v>34</v>
+      <c r="V258" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="259">
@@ -19556,22 +19553,22 @@
         <v>22</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="E259" s="2" t="s">
-        <v>224</v>
+        <v>114</v>
       </c>
       <c r="F259" s="2" t="s">
         <v>428</v>
       </c>
       <c r="G259" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="H259" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="H259" s="1" t="s">
-        <v>486</v>
-      </c>
       <c r="I259" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="J259" s="2" t="s">
         <v>29</v>
@@ -19609,8 +19606,8 @@
       <c r="U259" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V259" s="1" t="s">
-        <v>34</v>
+      <c r="V259" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="260">
@@ -19627,19 +19624,19 @@
         <v>487</v>
       </c>
       <c r="E260" s="2" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="F260" s="2" t="s">
         <v>428</v>
       </c>
       <c r="G260" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="H260" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="H260" s="1" t="s">
-        <v>486</v>
-      </c>
       <c r="I260" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="J260" s="2" t="s">
         <v>29</v>
@@ -19654,7 +19651,7 @@
         <v>31</v>
       </c>
       <c r="N260" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="O260" s="2" t="s">
         <v>32</v>
@@ -19677,8 +19674,8 @@
       <c r="U260" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V260" s="1" t="s">
-        <v>34</v>
+      <c r="V260" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="261">
@@ -19695,19 +19692,19 @@
         <v>488</v>
       </c>
       <c r="E261" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="F261" s="2" t="s">
         <v>428</v>
       </c>
       <c r="G261" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="H261" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="H261" s="1" t="s">
-        <v>486</v>
-      </c>
       <c r="I261" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="J261" s="2" t="s">
         <v>29</v>
@@ -19722,7 +19719,7 @@
         <v>31</v>
       </c>
       <c r="N261" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="O261" s="2" t="s">
         <v>32</v>
@@ -19745,8 +19742,8 @@
       <c r="U261" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V261" s="1" t="s">
-        <v>34</v>
+      <c r="V261" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="262">
@@ -19763,19 +19760,19 @@
         <v>489</v>
       </c>
       <c r="E262" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F262" s="2" t="s">
         <v>428</v>
       </c>
       <c r="G262" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="H262" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="H262" s="1" t="s">
-        <v>486</v>
-      </c>
       <c r="I262" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="J262" s="2" t="s">
         <v>29</v>
@@ -19813,8 +19810,8 @@
       <c r="U262" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V262" s="1" t="s">
-        <v>34</v>
+      <c r="V262" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="263">
@@ -19831,19 +19828,19 @@
         <v>490</v>
       </c>
       <c r="E263" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F263" s="2" t="s">
         <v>428</v>
       </c>
       <c r="G263" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="H263" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="H263" s="1" t="s">
-        <v>486</v>
-      </c>
       <c r="I263" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="J263" s="2" t="s">
         <v>29</v>
@@ -19881,8 +19878,8 @@
       <c r="U263" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V263" s="1" t="s">
-        <v>34</v>
+      <c r="V263" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="264">
@@ -19899,19 +19896,19 @@
         <v>491</v>
       </c>
       <c r="E264" s="2" t="s">
-        <v>97</v>
+        <v>54</v>
       </c>
       <c r="F264" s="2" t="s">
         <v>428</v>
       </c>
       <c r="G264" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="H264" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="H264" s="1" t="s">
-        <v>486</v>
-      </c>
       <c r="I264" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="J264" s="2" t="s">
         <v>29</v>
@@ -19949,8 +19946,8 @@
       <c r="U264" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V264" s="1" t="s">
-        <v>34</v>
+      <c r="V264" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="265">
@@ -19967,19 +19964,19 @@
         <v>492</v>
       </c>
       <c r="E265" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F265" s="2" t="s">
         <v>428</v>
       </c>
       <c r="G265" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="H265" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="H265" s="1" t="s">
-        <v>486</v>
-      </c>
       <c r="I265" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="J265" s="2" t="s">
         <v>29</v>
@@ -20017,8 +20014,8 @@
       <c r="U265" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V265" s="1" t="s">
-        <v>34</v>
+      <c r="V265" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="266">
@@ -20035,19 +20032,19 @@
         <v>493</v>
       </c>
       <c r="E266" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F266" s="2" t="s">
         <v>428</v>
       </c>
       <c r="G266" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="H266" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="H266" s="1" t="s">
-        <v>486</v>
-      </c>
       <c r="I266" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="J266" s="2" t="s">
         <v>29</v>
@@ -20065,7 +20062,7 @@
         <v>43</v>
       </c>
       <c r="O266" s="2" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="P266" s="2" t="s">
         <v>32</v>
@@ -20085,8 +20082,8 @@
       <c r="U266" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V266" s="1" t="s">
-        <v>34</v>
+      <c r="V266" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="267">
@@ -20103,19 +20100,19 @@
         <v>494</v>
       </c>
       <c r="E267" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F267" s="2" t="s">
         <v>428</v>
       </c>
       <c r="G267" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="H267" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="H267" s="1" t="s">
-        <v>486</v>
-      </c>
       <c r="I267" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="J267" s="2" t="s">
         <v>29</v>
@@ -20153,8 +20150,8 @@
       <c r="U267" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V267" s="1" t="s">
-        <v>34</v>
+      <c r="V267" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="268">
@@ -20171,19 +20168,19 @@
         <v>495</v>
       </c>
       <c r="E268" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F268" s="2" t="s">
         <v>428</v>
       </c>
       <c r="G268" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="H268" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="H268" s="1" t="s">
-        <v>486</v>
-      </c>
       <c r="I268" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="J268" s="2" t="s">
         <v>29</v>
@@ -20201,7 +20198,7 @@
         <v>43</v>
       </c>
       <c r="O268" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="P268" s="2" t="s">
         <v>32</v>
@@ -20221,8 +20218,8 @@
       <c r="U268" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V268" s="1" t="s">
-        <v>34</v>
+      <c r="V268" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="269">
@@ -20239,19 +20236,19 @@
         <v>496</v>
       </c>
       <c r="E269" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F269" s="2" t="s">
         <v>428</v>
       </c>
       <c r="G269" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="H269" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="H269" s="1" t="s">
-        <v>486</v>
-      </c>
       <c r="I269" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="J269" s="2" t="s">
         <v>29</v>
@@ -20269,7 +20266,7 @@
         <v>43</v>
       </c>
       <c r="O269" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="P269" s="2" t="s">
         <v>32</v>
@@ -20289,8 +20286,8 @@
       <c r="U269" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V269" s="1" t="s">
-        <v>34</v>
+      <c r="V269" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="270">
@@ -20307,19 +20304,19 @@
         <v>497</v>
       </c>
       <c r="E270" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F270" s="2" t="s">
         <v>428</v>
       </c>
       <c r="G270" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="H270" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="H270" s="1" t="s">
-        <v>486</v>
-      </c>
       <c r="I270" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="J270" s="2" t="s">
         <v>29</v>
@@ -20357,8 +20354,8 @@
       <c r="U270" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V270" s="1" t="s">
-        <v>34</v>
+      <c r="V270" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="271">
@@ -20375,19 +20372,19 @@
         <v>498</v>
       </c>
       <c r="E271" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F271" s="2" t="s">
         <v>428</v>
       </c>
       <c r="G271" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="H271" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="H271" s="1" t="s">
-        <v>486</v>
-      </c>
       <c r="I271" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="J271" s="2" t="s">
         <v>29</v>
@@ -20405,7 +20402,7 @@
         <v>43</v>
       </c>
       <c r="O271" s="2" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="P271" s="2" t="s">
         <v>32</v>
@@ -20425,8 +20422,8 @@
       <c r="U271" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V271" s="1" t="s">
-        <v>34</v>
+      <c r="V271" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="272">
@@ -20443,19 +20440,19 @@
         <v>499</v>
       </c>
       <c r="E272" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F272" s="2" t="s">
         <v>428</v>
       </c>
       <c r="G272" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="H272" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="H272" s="1" t="s">
-        <v>486</v>
-      </c>
       <c r="I272" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="J272" s="2" t="s">
         <v>29</v>
@@ -20470,10 +20467,10 @@
         <v>31</v>
       </c>
       <c r="N272" s="2" t="s">
-        <v>43</v>
+        <v>500</v>
       </c>
       <c r="O272" s="2" t="s">
-        <v>32</v>
+        <v>315</v>
       </c>
       <c r="P272" s="2" t="s">
         <v>32</v>
@@ -20493,8 +20490,8 @@
       <c r="U272" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V272" s="1" t="s">
-        <v>34</v>
+      <c r="V272" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="273">
@@ -20508,22 +20505,22 @@
         <v>22</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="E273" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F273" s="2" t="s">
         <v>428</v>
       </c>
       <c r="G273" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="H273" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="H273" s="1" t="s">
-        <v>486</v>
-      </c>
       <c r="I273" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="J273" s="2" t="s">
         <v>29</v>
@@ -20538,10 +20535,10 @@
         <v>31</v>
       </c>
       <c r="N273" s="2" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="O273" s="2" t="s">
-        <v>315</v>
+        <v>474</v>
       </c>
       <c r="P273" s="2" t="s">
         <v>32</v>
@@ -20561,8 +20558,8 @@
       <c r="U273" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V273" s="1" t="s">
-        <v>34</v>
+      <c r="V273" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="274">
@@ -20576,22 +20573,22 @@
         <v>22</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="E274" s="2" t="s">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="F274" s="2" t="s">
         <v>428</v>
       </c>
       <c r="G274" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="H274" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="H274" s="1" t="s">
-        <v>486</v>
-      </c>
       <c r="I274" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="J274" s="2" t="s">
         <v>29</v>
@@ -20606,10 +20603,10 @@
         <v>31</v>
       </c>
       <c r="N274" s="2" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="O274" s="2" t="s">
-        <v>474</v>
+        <v>151</v>
       </c>
       <c r="P274" s="2" t="s">
         <v>32</v>
@@ -20624,13 +20621,13 @@
         <v>32</v>
       </c>
       <c r="T274" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="U274" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V274" s="1" t="s">
-        <v>34</v>
+      <c r="V274" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="275">
@@ -20644,22 +20641,22 @@
         <v>22</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="E275" s="2" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="F275" s="2" t="s">
         <v>428</v>
       </c>
       <c r="G275" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="H275" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="H275" s="1" t="s">
-        <v>486</v>
-      </c>
       <c r="I275" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="J275" s="2" t="s">
         <v>29</v>
@@ -20674,10 +20671,10 @@
         <v>31</v>
       </c>
       <c r="N275" s="2" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="O275" s="2" t="s">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="P275" s="2" t="s">
         <v>32</v>
@@ -20692,13 +20689,13 @@
         <v>32</v>
       </c>
       <c r="T275" s="2" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="U275" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V275" s="1" t="s">
-        <v>34</v>
+      <c r="V275" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="276">
@@ -20712,22 +20709,22 @@
         <v>22</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E276" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F276" s="2" t="s">
         <v>428</v>
       </c>
       <c r="G276" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="H276" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="H276" s="1" t="s">
-        <v>486</v>
-      </c>
       <c r="I276" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="J276" s="2" t="s">
         <v>29</v>
@@ -20742,10 +20739,10 @@
         <v>31</v>
       </c>
       <c r="N276" s="2" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="O276" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="P276" s="2" t="s">
         <v>32</v>
@@ -20760,13 +20757,13 @@
         <v>32</v>
       </c>
       <c r="T276" s="2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="U276" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V276" s="1" t="s">
-        <v>34</v>
+      <c r="V276" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="277">
@@ -20780,22 +20777,22 @@
         <v>22</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="E277" s="2" t="s">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="F277" s="2" t="s">
         <v>428</v>
       </c>
       <c r="G277" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="H277" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="H277" s="1" t="s">
-        <v>486</v>
-      </c>
       <c r="I277" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="J277" s="2" t="s">
         <v>29</v>
@@ -20810,10 +20807,10 @@
         <v>31</v>
       </c>
       <c r="N277" s="2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="O277" s="2" t="s">
-        <v>123</v>
+        <v>74</v>
       </c>
       <c r="P277" s="2" t="s">
         <v>32</v>
@@ -20828,13 +20825,13 @@
         <v>32</v>
       </c>
       <c r="T277" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="U277" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V277" s="1" t="s">
-        <v>34</v>
+      <c r="V277" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="278">
@@ -20848,22 +20845,22 @@
         <v>22</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="E278" s="2" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="F278" s="2" t="s">
         <v>428</v>
       </c>
       <c r="G278" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="H278" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="H278" s="1" t="s">
-        <v>486</v>
-      </c>
       <c r="I278" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="J278" s="2" t="s">
         <v>29</v>
@@ -20878,10 +20875,10 @@
         <v>31</v>
       </c>
       <c r="N278" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="O278" s="2" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="P278" s="2" t="s">
         <v>32</v>
@@ -20901,8 +20898,8 @@
       <c r="U278" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V278" s="1" t="s">
-        <v>34</v>
+      <c r="V278" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="279">
@@ -20916,22 +20913,22 @@
         <v>22</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="E279" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F279" s="2" t="s">
         <v>428</v>
       </c>
       <c r="G279" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="H279" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="H279" s="1" t="s">
-        <v>486</v>
-      </c>
       <c r="I279" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="J279" s="2" t="s">
         <v>29</v>
@@ -20946,7 +20943,7 @@
         <v>31</v>
       </c>
       <c r="N279" s="2" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="O279" s="2" t="s">
         <v>32</v>
@@ -20969,8 +20966,8 @@
       <c r="U279" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V279" s="1" t="s">
-        <v>34</v>
+      <c r="V279" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="280">
@@ -20984,22 +20981,22 @@
         <v>22</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="E280" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F280" s="2" t="s">
         <v>428</v>
       </c>
       <c r="G280" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="H280" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="H280" s="1" t="s">
-        <v>486</v>
-      </c>
       <c r="I280" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="J280" s="2" t="s">
         <v>29</v>
@@ -21014,7 +21011,7 @@
         <v>31</v>
       </c>
       <c r="N280" s="2" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="O280" s="2" t="s">
         <v>32</v>
@@ -21052,22 +21049,22 @@
         <v>22</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="E281" s="2" t="s">
-        <v>46</v>
+        <v>181</v>
       </c>
       <c r="F281" s="2" t="s">
-        <v>428</v>
+        <v>490</v>
       </c>
       <c r="G281" s="1" t="s">
-        <v>485</v>
+        <v>518</v>
       </c>
       <c r="H281" s="1" t="s">
-        <v>486</v>
+        <v>519</v>
       </c>
       <c r="I281" s="1" t="s">
-        <v>486</v>
+        <v>520</v>
       </c>
       <c r="J281" s="2" t="s">
         <v>29</v>
@@ -21082,7 +21079,7 @@
         <v>31</v>
       </c>
       <c r="N281" s="2" t="s">
-        <v>517</v>
+        <v>389</v>
       </c>
       <c r="O281" s="2" t="s">
         <v>32</v>
@@ -21120,23 +21117,23 @@
         <v>22</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="E282" s="2" t="s">
-        <v>181</v>
+        <v>87</v>
       </c>
       <c r="F282" s="2" t="s">
         <v>490</v>
       </c>
       <c r="G282" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="H282" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="H282" s="1" t="s">
+      <c r="I282" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="I282" s="1" t="s">
-        <v>521</v>
-      </c>
       <c r="J282" s="2" t="s">
         <v>29</v>
       </c>
@@ -21150,10 +21147,10 @@
         <v>31</v>
       </c>
       <c r="N282" s="2" t="s">
-        <v>388</v>
+        <v>32</v>
       </c>
       <c r="O282" s="2" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="P282" s="2" t="s">
         <v>32</v>
@@ -21173,8 +21170,8 @@
       <c r="U282" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V282" s="1" t="s">
-        <v>34</v>
+      <c r="V282" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="283">
@@ -21191,19 +21188,19 @@
         <v>522</v>
       </c>
       <c r="E283" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="F283" s="2" t="s">
         <v>490</v>
       </c>
       <c r="G283" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="H283" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="H283" s="1" t="s">
+      <c r="I283" s="1" t="s">
         <v>520</v>
-      </c>
-      <c r="I283" s="1" t="s">
-        <v>521</v>
       </c>
       <c r="J283" s="2" t="s">
         <v>29</v>
@@ -21241,8 +21238,8 @@
       <c r="U283" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V283" s="1" t="s">
-        <v>34</v>
+      <c r="V283" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="284">
@@ -21259,20 +21256,20 @@
         <v>523</v>
       </c>
       <c r="E284" s="2" t="s">
-        <v>93</v>
+        <v>59</v>
       </c>
       <c r="F284" s="2" t="s">
         <v>490</v>
       </c>
       <c r="G284" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="H284" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="H284" s="1" t="s">
+      <c r="I284" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="I284" s="1" t="s">
-        <v>521</v>
-      </c>
       <c r="J284" s="2" t="s">
         <v>29</v>
       </c>
@@ -21286,10 +21283,10 @@
         <v>31</v>
       </c>
       <c r="N284" s="2" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="O284" s="2" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="P284" s="2" t="s">
         <v>32</v>
@@ -21309,8 +21306,8 @@
       <c r="U284" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V284" s="1" t="s">
-        <v>34</v>
+      <c r="V284" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="285">
@@ -21327,20 +21324,20 @@
         <v>524</v>
       </c>
       <c r="E285" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F285" s="2" t="s">
         <v>490</v>
       </c>
       <c r="G285" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="H285" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="H285" s="1" t="s">
+      <c r="I285" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="I285" s="1" t="s">
-        <v>521</v>
-      </c>
       <c r="J285" s="2" t="s">
         <v>29</v>
       </c>
@@ -21354,10 +21351,10 @@
         <v>31</v>
       </c>
       <c r="N285" s="2" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="O285" s="2" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="P285" s="2" t="s">
         <v>32</v>
@@ -21377,8 +21374,8 @@
       <c r="U285" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V285" s="1" t="s">
-        <v>34</v>
+      <c r="V285" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="286">
@@ -21395,20 +21392,20 @@
         <v>525</v>
       </c>
       <c r="E286" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F286" s="2" t="s">
         <v>490</v>
       </c>
       <c r="G286" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="H286" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="H286" s="1" t="s">
+      <c r="I286" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="I286" s="1" t="s">
-        <v>521</v>
-      </c>
       <c r="J286" s="2" t="s">
         <v>29</v>
       </c>
@@ -21425,7 +21422,7 @@
         <v>32</v>
       </c>
       <c r="O286" s="2" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="P286" s="2" t="s">
         <v>32</v>
@@ -21445,8 +21442,8 @@
       <c r="U286" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V286" s="1" t="s">
-        <v>34</v>
+      <c r="V286" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="287">
@@ -21463,20 +21460,20 @@
         <v>526</v>
       </c>
       <c r="E287" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F287" s="2" t="s">
         <v>490</v>
       </c>
       <c r="G287" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="H287" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="H287" s="1" t="s">
+      <c r="I287" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="I287" s="1" t="s">
-        <v>521</v>
-      </c>
       <c r="J287" s="2" t="s">
         <v>29</v>
       </c>
@@ -21493,7 +21490,7 @@
         <v>32</v>
       </c>
       <c r="O287" s="2" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="P287" s="2" t="s">
         <v>32</v>
@@ -21513,8 +21510,8 @@
       <c r="U287" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V287" s="1" t="s">
-        <v>34</v>
+      <c r="V287" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="288">
@@ -21531,20 +21528,20 @@
         <v>527</v>
       </c>
       <c r="E288" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F288" s="2" t="s">
         <v>490</v>
       </c>
       <c r="G288" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="H288" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="H288" s="1" t="s">
+      <c r="I288" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="I288" s="1" t="s">
-        <v>521</v>
-      </c>
       <c r="J288" s="2" t="s">
         <v>29</v>
       </c>
@@ -21558,13 +21555,13 @@
         <v>31</v>
       </c>
       <c r="N288" s="2" t="s">
-        <v>32</v>
+        <v>118</v>
       </c>
       <c r="O288" s="2" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="P288" s="2" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="Q288" s="2" t="s">
         <v>32</v>
@@ -21581,8 +21578,8 @@
       <c r="U288" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V288" s="1" t="s">
-        <v>34</v>
+      <c r="V288" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="289">
@@ -21599,20 +21596,20 @@
         <v>528</v>
       </c>
       <c r="E289" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F289" s="2" t="s">
         <v>490</v>
       </c>
       <c r="G289" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="H289" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="H289" s="1" t="s">
+      <c r="I289" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="I289" s="1" t="s">
-        <v>521</v>
-      </c>
       <c r="J289" s="2" t="s">
         <v>29</v>
       </c>
@@ -21626,13 +21623,13 @@
         <v>31</v>
       </c>
       <c r="N289" s="2" t="s">
-        <v>118</v>
+        <v>32</v>
       </c>
       <c r="O289" s="2" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="P289" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="Q289" s="2" t="s">
         <v>32</v>
@@ -21649,8 +21646,8 @@
       <c r="U289" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V289" s="1" t="s">
-        <v>34</v>
+      <c r="V289" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="290">
@@ -21667,20 +21664,20 @@
         <v>529</v>
       </c>
       <c r="E290" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F290" s="2" t="s">
         <v>490</v>
       </c>
       <c r="G290" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="H290" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="H290" s="1" t="s">
+      <c r="I290" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="I290" s="1" t="s">
-        <v>521</v>
-      </c>
       <c r="J290" s="2" t="s">
         <v>29</v>
       </c>
@@ -21694,10 +21691,10 @@
         <v>31</v>
       </c>
       <c r="N290" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="O290" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="P290" s="2" t="s">
         <v>32</v>
@@ -21717,76 +21714,8 @@
       <c r="U290" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V290" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="291">
-      <c r="A291" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B291" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C291" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D291" s="2" t="s">
-        <v>530</v>
-      </c>
-      <c r="E291" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F291" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="G291" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="H291" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="I291" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="J291" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K291" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L291" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M291" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N291" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="O291" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="P291" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q291" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R291" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S291" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T291" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U291" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="V291" s="1" t="s">
-        <v>34</v>
+      <c r="V290" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Excel-XLSX/UN-SOM.xlsx
+++ b/Excel-XLSX/UN-SOM.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="551">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="552">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>4hB0XC</t>
+    <t>5lQrA3</t>
   </si>
   <si>
     <t>1977</t>
@@ -1629,10 +1629,10 @@
     <t>295</t>
   </si>
   <si>
-    <t>5213</t>
-  </si>
-  <si>
-    <t>20366</t>
+    <t>5223</t>
+  </si>
+  <si>
+    <t>21818</t>
   </si>
   <si>
     <t>296</t>
@@ -1650,7 +1650,10 @@
     <t>300</t>
   </si>
   <si>
-    <t>3861634</t>
+    <t>3861643</t>
+  </si>
+  <si>
+    <t>290750</t>
   </si>
   <si>
     <t>301</t>
@@ -1659,7 +1662,7 @@
     <t>302</t>
   </si>
   <si>
-    <t>1545</t>
+    <t>1591</t>
   </si>
   <si>
     <t>303</t>
@@ -1668,7 +1671,7 @@
     <t>304</t>
   </si>
   <si>
-    <t>11647</t>
+    <t>12332</t>
   </si>
 </sst>
 </file>
@@ -21825,7 +21828,7 @@
         <v>32</v>
       </c>
       <c r="O291" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="P291" s="2" t="s">
         <v>32</v>
@@ -22029,7 +22032,7 @@
         <v>32</v>
       </c>
       <c r="O294" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="P294" s="2" t="s">
         <v>32</v>
@@ -22097,7 +22100,7 @@
         <v>105</v>
       </c>
       <c r="O295" s="2" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="P295" s="2" t="s">
         <v>32</v>
@@ -22230,7 +22233,7 @@
         <v>30</v>
       </c>
       <c r="N297" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="O297" s="2" t="s">
         <v>32</v>
@@ -22514,13 +22517,13 @@
         <v>544</v>
       </c>
       <c r="R301" s="2" t="s">
-        <v>32</v>
+        <v>545</v>
       </c>
       <c r="S301" s="2" t="s">
         <v>32</v>
       </c>
       <c r="T301" s="2" t="s">
-        <v>430</v>
+        <v>419</v>
       </c>
       <c r="U301" s="1" t="s">
         <v>33</v>
@@ -22540,7 +22543,7 @@
         <v>22</v>
       </c>
       <c r="D302" s="2" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="E302" s="2" t="s">
         <v>531</v>
@@ -22570,10 +22573,10 @@
         <v>30</v>
       </c>
       <c r="N302" s="2" t="s">
-        <v>169</v>
+        <v>506</v>
       </c>
       <c r="O302" s="2" t="s">
-        <v>111</v>
+        <v>160</v>
       </c>
       <c r="P302" s="2" t="s">
         <v>32</v>
@@ -22608,7 +22611,7 @@
         <v>22</v>
       </c>
       <c r="D303" s="2" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E303" s="2" t="s">
         <v>531</v>
@@ -22638,10 +22641,10 @@
         <v>30</v>
       </c>
       <c r="N303" s="2" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="O303" s="2" t="s">
-        <v>345</v>
+        <v>367</v>
       </c>
       <c r="P303" s="2" t="s">
         <v>32</v>
@@ -22676,7 +22679,7 @@
         <v>22</v>
       </c>
       <c r="D304" s="2" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="E304" s="2" t="s">
         <v>531</v>
@@ -22744,7 +22747,7 @@
         <v>22</v>
       </c>
       <c r="D305" s="2" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="E305" s="2" t="s">
         <v>531</v>
@@ -22774,7 +22777,7 @@
         <v>30</v>
       </c>
       <c r="N305" s="2" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="O305" s="2" t="s">
         <v>32</v>
